--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_17_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656045.1358853488</v>
+        <v>590069.8744864351</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13855923.53099058</v>
+        <v>13855923.53099059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6623804.854981972</v>
+        <v>6623804.854981971</v>
       </c>
     </row>
     <row r="11">
@@ -1378,58 +1378,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>182.8374474871619</v>
+      </c>
+      <c r="G11" t="n">
+        <v>182.8374474871619</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>182.8374474871619</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>161.0432237466922</v>
-      </c>
-      <c r="F11" t="n">
-        <v>182.837447487162</v>
-      </c>
-      <c r="G11" t="n">
-        <v>182.837447487162</v>
-      </c>
-      <c r="H11" t="n">
-        <v>182.837447487162</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13.44671309361379</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>147.5965106530784</v>
       </c>
       <c r="T12" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>173.0046239467978</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>97.99043436309189</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.0604078751873</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>124.7588730199218</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.66155866191555</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>161.0432237466922</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="F14" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>182.8374474871619</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>102.0840723294427</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.35367080851994</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>46.90116789696087</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W15" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.0432237466921</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>97.99043436309144</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9252708782571</v>
+        <v>14.88420233688762</v>
       </c>
       <c r="H16" t="n">
-        <v>153.0604078751873</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>124.7588730199218</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.66155866191555</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,73 +1843,73 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>64.65901976764867</v>
+      </c>
+      <c r="I17" t="n">
+        <v>122.3448497289536</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>156.8768017372518</v>
+      </c>
+      <c r="T17" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>182.8374474871619</v>
-      </c>
-      <c r="F17" t="n">
-        <v>161.0432237466922</v>
-      </c>
-      <c r="G17" t="n">
-        <v>182.8374474871619</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>50.02932187529488</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>99.35367080851994</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>46.90116789696087</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S18" t="n">
-        <v>147.5965106530784</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>137.7636871127142</v>
+      </c>
+      <c r="V18" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>30.38509689284717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W19" t="n">
-        <v>179.2978742991298</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>156.8768017372518</v>
+      </c>
+      <c r="T20" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6.809599373345463</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>154.2336243733467</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W20" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.166422009440388</v>
       </c>
       <c r="Y20" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>75.25181459848621</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>17.5369916631429</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>161.0432237466922</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>182.8374474871619</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>182.8374474871619</v>
@@ -2301,7 +2301,7 @@
         <v>182.8374474871619</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="D23" t="n">
-        <v>161.0432237466922</v>
+        <v>154.2336243733466</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6.809599373345463</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>182.8374474871619</v>
-      </c>
-      <c r="F23" t="n">
-        <v>182.8374474871619</v>
-      </c>
-      <c r="G23" t="n">
-        <v>182.8374474871619</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2450,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>137.7636871127142</v>
+      </c>
+      <c r="W24" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>155.2290089895313</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="25">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>115.8054479202924</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.0604078751873</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>124.7588730199218</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>161.0432237466923</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="G26" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>182.8374474871619</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>161.0432237466921</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>56.93864216866935</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>161.0432237466923</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>182.8374474871619</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>33.76507829570516</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>182.8374474871619</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="U28" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="F29" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>161.0432237466922</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>182.8374474871619</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>182.8374474871619</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>99.35367080851994</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>46.90116789696087</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>23.27953663397798</v>
       </c>
       <c r="S30" t="n">
-        <v>39.47332029185228</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>137.7636871127142</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14.8842023368877</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.66155866191555</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W31" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="X31" t="n">
-        <v>155.8825596407361</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>38.69837401773869</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>122.3448497289536</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>182.8374474871619</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V32" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>5.00979003951844</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>182.8374474871619</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>182.8374474871619</v>
@@ -3173,7 +3173,7 @@
         <v>182.8374474871619</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>137.7636871127142</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>161.0432237466922</v>
+      </c>
+      <c r="U34" t="n">
         <v>182.8374474871619</v>
       </c>
-      <c r="U34" t="n">
-        <v>179.2978742991299</v>
-      </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="C35" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4.166422009440494</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>161.0432237466922</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3356,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I36" t="n">
-        <v>17.5369916631429</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>182.8374474871619</v>
+        <v>86.3744881888133</v>
       </c>
       <c r="V36" t="n">
         <v>182.8374474871619</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>14.88420233688778</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W37" t="n">
         <v>182.8374474871619</v>
       </c>
       <c r="X37" t="n">
-        <v>182.8374474871619</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.7969797431703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>161.0432237466923</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="G38" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W39" t="n">
-        <v>178.5085456235095</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X39" t="n">
-        <v>182.837447487162</v>
+        <v>17.5369916631429</v>
       </c>
       <c r="Y39" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>67.68974837658465</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>163.7969797431703</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0432237466923</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V41" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
     </row>
     <row r="42">
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>92.87789291540838</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>54.95028333215327</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J43" t="n">
-        <v>20.66155866191555</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.0319014474652</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U43" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>10.34976363731152</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.16642200944041</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>161.0432237466923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>182.837447487162</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>182.837447487162</v>
+        <v>41.50658884992022</v>
       </c>
       <c r="X45" t="n">
-        <v>161.0432237466923</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.06859957349309</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>161.0432237466922</v>
       </c>
       <c r="V46" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="W46" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="C11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="D11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="E11" t="n">
-        <v>568.6798669721911</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9955765811184</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="G11" t="n">
-        <v>199.3112861900456</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H11" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I11" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J11" t="n">
-        <v>20.5078688166152</v>
+        <v>20.50786881661534</v>
       </c>
       <c r="K11" t="n">
         <v>78.79182830082463</v>
@@ -5059,34 +5059,34 @@
         <v>633.2474128485942</v>
       </c>
       <c r="P11" t="n">
-        <v>716.0996432869761</v>
+        <v>716.0996432869758</v>
       </c>
       <c r="Q11" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R11" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S11" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T11" t="n">
-        <v>731.3497899486479</v>
+        <v>546.665499557575</v>
       </c>
       <c r="U11" t="n">
-        <v>731.3497899486479</v>
+        <v>546.665499557575</v>
       </c>
       <c r="V11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="W11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="X11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="Y11" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.62699579897296</v>
+        <v>28.20953427737072</v>
       </c>
       <c r="C12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J12" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K12" t="n">
-        <v>65.45583405098608</v>
+        <v>65.45583405098607</v>
       </c>
       <c r="L12" t="n">
-        <v>178.9659573753333</v>
+        <v>178.9659573753332</v>
       </c>
       <c r="M12" t="n">
         <v>330.2998638361738</v>
@@ -5135,37 +5135,37 @@
         <v>499.6875572857936</v>
       </c>
       <c r="O12" t="n">
-        <v>632.9799039014438</v>
+        <v>632.9799039014439</v>
       </c>
       <c r="P12" t="n">
-        <v>721.1090237341638</v>
+        <v>721.1090237341635</v>
       </c>
       <c r="Q12" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R12" t="n">
-        <v>707.8351064799832</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S12" t="n">
-        <v>558.7477219819242</v>
+        <v>582.2624054505886</v>
       </c>
       <c r="T12" t="n">
-        <v>374.0634315908515</v>
+        <v>582.2624054505886</v>
       </c>
       <c r="U12" t="n">
-        <v>189.3791411997788</v>
+        <v>582.2624054505886</v>
       </c>
       <c r="V12" t="n">
-        <v>14.62699579897296</v>
+        <v>397.578115059516</v>
       </c>
       <c r="W12" t="n">
-        <v>14.62699579897296</v>
+        <v>212.8938246684434</v>
       </c>
       <c r="X12" t="n">
-        <v>14.62699579897296</v>
+        <v>28.20953427737072</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.62699579897296</v>
+        <v>28.20953427737072</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D13" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E13" t="n">
-        <v>632.369553218252</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F13" t="n">
-        <v>484.7341780568333</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G13" t="n">
-        <v>316.1227933313211</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H13" t="n">
-        <v>161.5163207301218</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I13" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J13" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K13" t="n">
         <v>110.9161925022162</v>
       </c>
       <c r="L13" t="n">
-        <v>122.6528755014874</v>
+        <v>289.9368282086718</v>
       </c>
       <c r="M13" t="n">
-        <v>258.6769401156484</v>
+        <v>427.5225491092646</v>
       </c>
       <c r="N13" t="n">
-        <v>439.6860131279388</v>
+        <v>608.5316221215548</v>
       </c>
       <c r="O13" t="n">
-        <v>608.8474927092198</v>
+        <v>609.8254020125232</v>
       </c>
       <c r="P13" t="n">
-        <v>730.3718806453442</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="Q13" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R13" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S13" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T13" t="n">
-        <v>731.3497899486479</v>
+        <v>568.6798669721909</v>
       </c>
       <c r="U13" t="n">
-        <v>731.3497899486479</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3497899486479</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>731.3497899486474</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="C14" t="n">
-        <v>731.3497899486474</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="D14" t="n">
-        <v>568.6798669721907</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="E14" t="n">
-        <v>383.9955765811181</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="F14" t="n">
-        <v>199.3112861900455</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="G14" t="n">
         <v>14.62699579897295</v>
@@ -5278,52 +5278,52 @@
         <v>14.62699579897295</v>
       </c>
       <c r="J14" t="n">
-        <v>20.50786881661514</v>
+        <v>20.50786881661531</v>
       </c>
       <c r="K14" t="n">
-        <v>78.79182830082453</v>
+        <v>78.7918283008247</v>
       </c>
       <c r="L14" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M14" t="n">
-        <v>338.4437735878634</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N14" t="n">
-        <v>496.757824009573</v>
+        <v>496.7578240095731</v>
       </c>
       <c r="O14" t="n">
-        <v>633.247412848594</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P14" t="n">
-        <v>716.0996432869756</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q14" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R14" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S14" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T14" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="U14" t="n">
-        <v>731.3497899486474</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="V14" t="n">
-        <v>731.3497899486474</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="W14" t="n">
-        <v>731.3497899486474</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="X14" t="n">
-        <v>731.3497899486474</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="Y14" t="n">
-        <v>731.3497899486474</v>
+        <v>383.9955765811181</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>546.6654995575748</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C15" t="n">
-        <v>546.6654995575748</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D15" t="n">
-        <v>546.6654995575748</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E15" t="n">
-        <v>443.5502749823801</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F15" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G15" t="n">
-        <v>162.3591561075394</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H15" t="n">
-        <v>62.0019128666102</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I15" t="n">
         <v>14.62699579897295</v>
@@ -5378,31 +5378,31 @@
         <v>721.1090237341633</v>
       </c>
       <c r="Q15" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R15" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S15" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T15" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="U15" t="n">
-        <v>731.3497899486474</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="V15" t="n">
-        <v>731.3497899486474</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="W15" t="n">
-        <v>546.6654995575748</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="X15" t="n">
-        <v>546.6654995575748</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y15" t="n">
-        <v>546.6654995575748</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>731.3497899486474</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="C16" t="n">
-        <v>731.3497899486474</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="D16" t="n">
-        <v>731.3497899486474</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="E16" t="n">
-        <v>632.369553218252</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="F16" t="n">
-        <v>484.7341780568333</v>
+        <v>29.66154361401095</v>
       </c>
       <c r="G16" t="n">
-        <v>316.1227933313211</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H16" t="n">
-        <v>161.5163207301218</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I16" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J16" t="n">
         <v>14.62699579897295</v>
@@ -5448,40 +5448,40 @@
         <v>470.9459012209621</v>
       </c>
       <c r="N16" t="n">
-        <v>607.5537128182509</v>
+        <v>608.5316221215547</v>
       </c>
       <c r="O16" t="n">
-        <v>608.8474927092193</v>
+        <v>609.8254020125231</v>
       </c>
       <c r="P16" t="n">
-        <v>730.3718806453437</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="Q16" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R16" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S16" t="n">
-        <v>731.3497899486474</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="T16" t="n">
-        <v>731.3497899486474</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="U16" t="n">
-        <v>731.3497899486474</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3497899486474</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3497899486474</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="X16" t="n">
-        <v>731.3497899486474</v>
+        <v>177.2969187754296</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.3497899486474</v>
+        <v>177.2969187754296</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>546.665499557575</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="C17" t="n">
-        <v>546.665499557575</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="D17" t="n">
-        <v>546.665499557575</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="E17" t="n">
-        <v>361.9812091665024</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="F17" t="n">
-        <v>199.3112861900456</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="G17" t="n">
-        <v>14.62699579897295</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="H17" t="n">
-        <v>14.62699579897295</v>
+        <v>138.2076520908453</v>
       </c>
       <c r="I17" t="n">
         <v>14.62699579897295</v>
       </c>
       <c r="J17" t="n">
-        <v>20.50786881661531</v>
+        <v>20.5078688166152</v>
       </c>
       <c r="K17" t="n">
-        <v>78.79182830082482</v>
+        <v>78.79182830082459</v>
       </c>
       <c r="L17" t="n">
-        <v>187.0774516727206</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M17" t="n">
-        <v>338.4437735878637</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N17" t="n">
-        <v>496.7578240095734</v>
+        <v>496.7578240095732</v>
       </c>
       <c r="O17" t="n">
         <v>633.2474128485942</v>
       </c>
       <c r="P17" t="n">
-        <v>716.0996432869758</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q17" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R17" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S17" t="n">
-        <v>731.3497899486476</v>
+        <v>572.8883740524336</v>
       </c>
       <c r="T17" t="n">
-        <v>731.3497899486476</v>
+        <v>388.204083661361</v>
       </c>
       <c r="U17" t="n">
-        <v>731.3497899486476</v>
+        <v>388.204083661361</v>
       </c>
       <c r="V17" t="n">
-        <v>731.3497899486476</v>
+        <v>388.204083661361</v>
       </c>
       <c r="W17" t="n">
-        <v>731.3497899486476</v>
+        <v>388.204083661361</v>
       </c>
       <c r="X17" t="n">
-        <v>731.3497899486476</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="Y17" t="n">
-        <v>731.3497899486476</v>
+        <v>203.5197932702884</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G18" t="n">
-        <v>162.3591561075394</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H18" t="n">
-        <v>62.0019128666102</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I18" t="n">
         <v>14.62699579897295</v>
@@ -5597,49 +5597,49 @@
         <v>14.62699579897295</v>
       </c>
       <c r="K18" t="n">
-        <v>65.45583405098625</v>
+        <v>65.45583405098608</v>
       </c>
       <c r="L18" t="n">
-        <v>178.9659573753334</v>
+        <v>178.9659573753333</v>
       </c>
       <c r="M18" t="n">
-        <v>330.2998638361739</v>
+        <v>330.2998638361738</v>
       </c>
       <c r="N18" t="n">
-        <v>499.6875572857937</v>
+        <v>499.6875572857936</v>
       </c>
       <c r="O18" t="n">
-        <v>632.979903901444</v>
+        <v>632.9799039014438</v>
       </c>
       <c r="P18" t="n">
-        <v>721.1090237341635</v>
+        <v>721.1090237341633</v>
       </c>
       <c r="Q18" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R18" t="n">
-        <v>731.3497899486476</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="S18" t="n">
-        <v>582.2624054505886</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="T18" t="n">
-        <v>397.578115059516</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="U18" t="n">
-        <v>212.8938246684434</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="V18" t="n">
-        <v>212.8938246684434</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="W18" t="n">
-        <v>212.8938246684434</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="X18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y18" t="n">
-        <v>212.8938246684434</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.6538169416016</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="C19" t="n">
-        <v>14.62699579897295</v>
+        <v>192.9543880238736</v>
       </c>
       <c r="D19" t="n">
-        <v>14.62699579897295</v>
+        <v>192.9543880238736</v>
       </c>
       <c r="E19" t="n">
-        <v>14.62699579897295</v>
+        <v>192.9543880238736</v>
       </c>
       <c r="F19" t="n">
-        <v>14.62699579897295</v>
+        <v>45.31901286245494</v>
       </c>
       <c r="G19" t="n">
-        <v>14.62699579897295</v>
+        <v>45.31901286245494</v>
       </c>
       <c r="H19" t="n">
-        <v>14.62699579897295</v>
+        <v>45.31901286245494</v>
       </c>
       <c r="I19" t="n">
         <v>14.62699579897295</v>
@@ -5676,49 +5676,49 @@
         <v>14.62699579897295</v>
       </c>
       <c r="K19" t="n">
-        <v>110.9161925022162</v>
+        <v>64.10479185202226</v>
       </c>
       <c r="L19" t="n">
-        <v>289.9368282086718</v>
+        <v>243.125427558478</v>
       </c>
       <c r="M19" t="n">
-        <v>417.8211023250425</v>
+        <v>258.6769401156482</v>
       </c>
       <c r="N19" t="n">
-        <v>440.6639224312423</v>
+        <v>439.6860131279385</v>
       </c>
       <c r="O19" t="n">
-        <v>609.8254020125232</v>
+        <v>608.8474927092194</v>
       </c>
       <c r="P19" t="n">
-        <v>731.3497899486476</v>
+        <v>730.3718806453438</v>
       </c>
       <c r="Q19" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R19" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S19" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T19" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="U19" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3497899486476</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="W19" t="n">
-        <v>550.2408260101327</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="X19" t="n">
-        <v>550.2408260101327</v>
+        <v>361.9812091665023</v>
       </c>
       <c r="Y19" t="n">
-        <v>365.55653561906</v>
+        <v>361.9812091665023</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.3112861900456</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C20" t="n">
         <v>14.62699579897295</v>
@@ -5752,52 +5752,52 @@
         <v>14.62699579897295</v>
       </c>
       <c r="J20" t="n">
-        <v>20.50786881661497</v>
+        <v>20.50786881661531</v>
       </c>
       <c r="K20" t="n">
-        <v>78.79182830082436</v>
+        <v>78.7918283008247</v>
       </c>
       <c r="L20" t="n">
-        <v>187.0774516727201</v>
+        <v>187.0774516727206</v>
       </c>
       <c r="M20" t="n">
-        <v>338.4437735878632</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N20" t="n">
-        <v>496.7578240095733</v>
+        <v>496.7578240095731</v>
       </c>
       <c r="O20" t="n">
         <v>633.2474128485942</v>
       </c>
       <c r="P20" t="n">
-        <v>716.0996432869758</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q20" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R20" t="n">
-        <v>724.4714067432482</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S20" t="n">
-        <v>724.4714067432482</v>
+        <v>572.8883740524336</v>
       </c>
       <c r="T20" t="n">
-        <v>724.4714067432482</v>
+        <v>388.204083661361</v>
       </c>
       <c r="U20" t="n">
-        <v>568.6798669721909</v>
+        <v>203.5197932702884</v>
       </c>
       <c r="V20" t="n">
-        <v>568.6798669721909</v>
+        <v>18.83550287921577</v>
       </c>
       <c r="W20" t="n">
-        <v>383.9955765811183</v>
+        <v>18.83550287921577</v>
       </c>
       <c r="X20" t="n">
-        <v>383.9955765811183</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y20" t="n">
-        <v>199.3112861900456</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>159.5827857823561</v>
+        <v>540.7925553584224</v>
       </c>
       <c r="C21" t="n">
-        <v>159.5827857823561</v>
+        <v>464.7806214205576</v>
       </c>
       <c r="D21" t="n">
-        <v>159.5827857823561</v>
+        <v>317.1923147795014</v>
       </c>
       <c r="E21" t="n">
         <v>159.5827857823561</v>
@@ -5840,43 +5840,43 @@
         <v>178.9659573753333</v>
       </c>
       <c r="M21" t="n">
-        <v>330.2998638361738</v>
+        <v>330.2998638361737</v>
       </c>
       <c r="N21" t="n">
-        <v>499.6875572857936</v>
+        <v>499.6875572857935</v>
       </c>
       <c r="O21" t="n">
         <v>632.9799039014438</v>
       </c>
       <c r="P21" t="n">
-        <v>721.1090237341635</v>
+        <v>721.1090237341634</v>
       </c>
       <c r="Q21" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R21" t="n">
-        <v>731.3497899486476</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="S21" t="n">
-        <v>731.3497899486476</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="T21" t="n">
-        <v>546.665499557575</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="U21" t="n">
-        <v>361.9812091665024</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="V21" t="n">
-        <v>177.2969187754297</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="W21" t="n">
-        <v>159.5827857823561</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="X21" t="n">
-        <v>159.5827857823561</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="Y21" t="n">
-        <v>159.5827857823561</v>
+        <v>707.8351064799829</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G22" t="n">
         <v>14.62699579897295</v>
@@ -5913,49 +5913,49 @@
         <v>14.62699579897295</v>
       </c>
       <c r="K22" t="n">
-        <v>110.9161925022162</v>
+        <v>20.17161933302657</v>
       </c>
       <c r="L22" t="n">
-        <v>199.1922550394825</v>
+        <v>199.1922550394823</v>
       </c>
       <c r="M22" t="n">
-        <v>380.2013280517727</v>
+        <v>380.2013280517725</v>
       </c>
       <c r="N22" t="n">
-        <v>561.210401064063</v>
+        <v>561.2104010640628</v>
       </c>
       <c r="O22" t="n">
-        <v>730.3718806453439</v>
+        <v>730.3718806453438</v>
       </c>
       <c r="P22" t="n">
-        <v>730.3718806453439</v>
+        <v>730.3718806453438</v>
       </c>
       <c r="Q22" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R22" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S22" t="n">
-        <v>546.665499557575</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T22" t="n">
-        <v>546.665499557575</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="U22" t="n">
-        <v>361.9812091665024</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="V22" t="n">
-        <v>177.2969187754297</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="X22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.2969187754297</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>731.3497899486476</v>
+        <v>355.1028259611028</v>
       </c>
       <c r="C23" t="n">
-        <v>731.3497899486476</v>
+        <v>170.4185355700302</v>
       </c>
       <c r="D23" t="n">
-        <v>568.6798669721909</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E23" t="n">
-        <v>383.9955765811183</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F23" t="n">
-        <v>199.3112861900456</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G23" t="n">
         <v>14.62699579897295</v>
@@ -5989,52 +5989,52 @@
         <v>14.62699579897295</v>
       </c>
       <c r="J23" t="n">
-        <v>20.50786881661534</v>
+        <v>20.50786881661524</v>
       </c>
       <c r="K23" t="n">
-        <v>78.79182830082473</v>
+        <v>78.79182830082463</v>
       </c>
       <c r="L23" t="n">
-        <v>187.0774516727205</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4437735878636</v>
+        <v>338.4437735878635</v>
       </c>
       <c r="N23" t="n">
-        <v>496.7578240095733</v>
+        <v>496.7578240095731</v>
       </c>
       <c r="O23" t="n">
-        <v>633.2474128485943</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P23" t="n">
-        <v>716.0996432869758</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q23" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="S23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="T23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="U23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="V23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="W23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="X23" t="n">
-        <v>731.3497899486476</v>
+        <v>724.4714067432481</v>
       </c>
       <c r="Y23" t="n">
-        <v>731.3497899486476</v>
+        <v>539.7871163521754</v>
       </c>
     </row>
     <row r="24">
@@ -6068,52 +6068,52 @@
         <v>14.62699579897295</v>
       </c>
       <c r="J24" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897301</v>
       </c>
       <c r="K24" t="n">
-        <v>65.45583405098608</v>
+        <v>65.45583405098614</v>
       </c>
       <c r="L24" t="n">
         <v>178.9659573753333</v>
       </c>
       <c r="M24" t="n">
-        <v>330.2998638361737</v>
+        <v>330.2998638361738</v>
       </c>
       <c r="N24" t="n">
-        <v>499.6875572857935</v>
+        <v>499.6875572857936</v>
       </c>
       <c r="O24" t="n">
-        <v>632.9799039014438</v>
+        <v>632.9799039014439</v>
       </c>
       <c r="P24" t="n">
-        <v>721.1090237341635</v>
+        <v>721.1090237341634</v>
       </c>
       <c r="Q24" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R24" t="n">
-        <v>707.835106479983</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="S24" t="n">
-        <v>707.835106479983</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="T24" t="n">
-        <v>523.1508160889103</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="U24" t="n">
-        <v>338.4665256978377</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="V24" t="n">
-        <v>338.4665256978377</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="W24" t="n">
-        <v>181.6695469205334</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="X24" t="n">
-        <v>181.6695469205334</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="Y24" t="n">
-        <v>181.6695469205334</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.3497899486476</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3497899486476</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D25" t="n">
-        <v>580.8391167016584</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8639167821711</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F25" t="n">
-        <v>463.8639167821711</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G25" t="n">
-        <v>295.2525320566589</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H25" t="n">
-        <v>140.6460594554596</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I25" t="n">
         <v>14.62699579897295</v>
@@ -6150,49 +6150,49 @@
         <v>14.62699579897295</v>
       </c>
       <c r="K25" t="n">
-        <v>21.14952863633047</v>
+        <v>110.9161925022162</v>
       </c>
       <c r="L25" t="n">
-        <v>200.1701643427862</v>
+        <v>289.9368282086718</v>
       </c>
       <c r="M25" t="n">
-        <v>381.1792373550765</v>
+        <v>305.4883407658421</v>
       </c>
       <c r="N25" t="n">
-        <v>562.1883103673667</v>
+        <v>439.6860131279385</v>
       </c>
       <c r="O25" t="n">
-        <v>731.3497899486476</v>
+        <v>608.8474927092194</v>
       </c>
       <c r="P25" t="n">
-        <v>731.3497899486476</v>
+        <v>730.3718806453438</v>
       </c>
       <c r="Q25" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R25" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S25" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T25" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="U25" t="n">
-        <v>731.3497899486476</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3497899486476</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3497899486476</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="X25" t="n">
-        <v>731.3497899486476</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.3497899486476</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="C26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="D26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="E26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="F26" t="n">
-        <v>383.9955765811183</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G26" t="n">
+        <v>14.62699579897295</v>
+      </c>
+      <c r="H26" t="n">
+        <v>14.62699579897295</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.62699579897295</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20.5078688166152</v>
+      </c>
+      <c r="K26" t="n">
+        <v>78.79182830082459</v>
+      </c>
+      <c r="L26" t="n">
+        <v>187.0774516727204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>338.4437735878635</v>
+      </c>
+      <c r="N26" t="n">
+        <v>496.7578240095731</v>
+      </c>
+      <c r="O26" t="n">
+        <v>633.2474128485942</v>
+      </c>
+      <c r="P26" t="n">
+        <v>716.0996432869757</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>731.3497899486475</v>
+      </c>
+      <c r="R26" t="n">
+        <v>731.3497899486475</v>
+      </c>
+      <c r="S26" t="n">
+        <v>731.3497899486475</v>
+      </c>
+      <c r="T26" t="n">
+        <v>546.6654995575749</v>
+      </c>
+      <c r="U26" t="n">
+        <v>361.9812091665023</v>
+      </c>
+      <c r="V26" t="n">
         <v>199.3112861900456</v>
       </c>
-      <c r="H26" t="n">
-        <v>14.62699579897296</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.62699579897296</v>
-      </c>
-      <c r="J26" t="n">
-        <v>20.50786881661547</v>
-      </c>
-      <c r="K26" t="n">
-        <v>78.79182830082486</v>
-      </c>
-      <c r="L26" t="n">
-        <v>187.0774516727206</v>
-      </c>
-      <c r="M26" t="n">
-        <v>338.4437735878637</v>
-      </c>
-      <c r="N26" t="n">
-        <v>496.7578240095734</v>
-      </c>
-      <c r="O26" t="n">
-        <v>633.2474128485944</v>
-      </c>
-      <c r="P26" t="n">
-        <v>716.0996432869759</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>731.3497899486478</v>
-      </c>
-      <c r="R26" t="n">
-        <v>731.3497899486478</v>
-      </c>
-      <c r="S26" t="n">
-        <v>731.3497899486478</v>
-      </c>
-      <c r="T26" t="n">
-        <v>546.6654995575751</v>
-      </c>
-      <c r="U26" t="n">
-        <v>546.6654995575751</v>
-      </c>
-      <c r="V26" t="n">
-        <v>546.6654995575751</v>
-      </c>
       <c r="W26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="X26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.6654995575751</v>
+        <v>199.3112861900456</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.62699579897296</v>
+        <v>356.1082649673498</v>
       </c>
       <c r="C27" t="n">
-        <v>14.62699579897296</v>
+        <v>356.1082649673498</v>
       </c>
       <c r="D27" t="n">
-        <v>14.62699579897296</v>
+        <v>356.1082649673498</v>
       </c>
       <c r="E27" t="n">
-        <v>14.62699579897296</v>
+        <v>298.5944849989969</v>
       </c>
       <c r="F27" t="n">
-        <v>14.62699579897296</v>
+        <v>298.5944849989969</v>
       </c>
       <c r="G27" t="n">
-        <v>14.62699579897296</v>
+        <v>162.3591561075394</v>
       </c>
       <c r="H27" t="n">
-        <v>14.62699579897296</v>
+        <v>62.0019128666102</v>
       </c>
       <c r="I27" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J27" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K27" t="n">
-        <v>65.45583405098603</v>
+        <v>65.45583405098608</v>
       </c>
       <c r="L27" t="n">
-        <v>178.9659573753332</v>
+        <v>178.9659573753333</v>
       </c>
       <c r="M27" t="n">
-        <v>330.2998638361737</v>
+        <v>330.2998638361738</v>
       </c>
       <c r="N27" t="n">
         <v>499.6875572857936</v>
       </c>
       <c r="O27" t="n">
-        <v>632.9799039014439</v>
+        <v>632.9799039014438</v>
       </c>
       <c r="P27" t="n">
-        <v>721.1090237341637</v>
+        <v>721.1090237341633</v>
       </c>
       <c r="Q27" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R27" t="n">
-        <v>731.3497899486478</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="S27" t="n">
-        <v>731.3497899486478</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="T27" t="n">
-        <v>731.3497899486478</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="U27" t="n">
-        <v>568.6798669721909</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="V27" t="n">
-        <v>383.9955765811183</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="W27" t="n">
-        <v>199.3112861900456</v>
+        <v>523.1508160889102</v>
       </c>
       <c r="X27" t="n">
-        <v>199.3112861900456</v>
+        <v>523.1508160889102</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.62699579897296</v>
+        <v>523.1508160889102</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K28" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L28" t="n">
         <v>193.6476315054286</v>
       </c>
       <c r="M28" t="n">
-        <v>258.6769401156483</v>
+        <v>374.6567045177189</v>
       </c>
       <c r="N28" t="n">
-        <v>439.6860131279387</v>
+        <v>440.6639224312422</v>
       </c>
       <c r="O28" t="n">
-        <v>608.8474927092196</v>
+        <v>609.8254020125231</v>
       </c>
       <c r="P28" t="n">
-        <v>730.371880645344</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="Q28" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R28" t="n">
-        <v>600.0044349512082</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S28" t="n">
-        <v>565.8982952585767</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T28" t="n">
-        <v>381.2140048675041</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="U28" t="n">
-        <v>196.5297144764314</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="V28" t="n">
-        <v>196.5297144764314</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W28" t="n">
-        <v>196.5297144764314</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="X28" t="n">
-        <v>196.5297144764314</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.5297144764314</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>199.3112861900455</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="C29" t="n">
-        <v>199.3112861900455</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="D29" t="n">
-        <v>199.3112861900455</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="E29" t="n">
-        <v>199.3112861900455</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F29" t="n">
         <v>14.62699579897295</v>
@@ -6463,52 +6463,52 @@
         <v>14.62699579897295</v>
       </c>
       <c r="J29" t="n">
-        <v>20.50786881661502</v>
+        <v>20.50786881661531</v>
       </c>
       <c r="K29" t="n">
-        <v>78.79182830082441</v>
+        <v>78.7918283008247</v>
       </c>
       <c r="L29" t="n">
-        <v>187.0774516727201</v>
+        <v>187.0774516727205</v>
       </c>
       <c r="M29" t="n">
-        <v>338.4437735878632</v>
+        <v>338.4437735878636</v>
       </c>
       <c r="N29" t="n">
-        <v>496.7578240095729</v>
+        <v>496.7578240095733</v>
       </c>
       <c r="O29" t="n">
-        <v>633.247412848594</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P29" t="n">
-        <v>716.0996432869756</v>
+        <v>716.0996432869758</v>
       </c>
       <c r="Q29" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R29" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S29" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T29" t="n">
-        <v>568.6798669721907</v>
+        <v>568.6798669721909</v>
       </c>
       <c r="U29" t="n">
-        <v>383.9955765811181</v>
+        <v>568.6798669721909</v>
       </c>
       <c r="V29" t="n">
-        <v>383.9955765811181</v>
+        <v>568.6798669721909</v>
       </c>
       <c r="W29" t="n">
-        <v>199.3112861900455</v>
+        <v>568.6798669721909</v>
       </c>
       <c r="X29" t="n">
-        <v>199.3112861900455</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="Y29" t="n">
-        <v>199.3112861900455</v>
+        <v>383.9955765811183</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G30" t="n">
-        <v>162.3591561075394</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H30" t="n">
-        <v>62.0019128666102</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I30" t="n">
         <v>14.62699579897295</v>
@@ -6545,49 +6545,49 @@
         <v>14.62699579897295</v>
       </c>
       <c r="K30" t="n">
-        <v>65.45583405098625</v>
+        <v>65.45583405098608</v>
       </c>
       <c r="L30" t="n">
-        <v>178.9659573753335</v>
+        <v>178.9659573753333</v>
       </c>
       <c r="M30" t="n">
-        <v>330.2998638361739</v>
+        <v>330.2998638361738</v>
       </c>
       <c r="N30" t="n">
-        <v>499.6875572857938</v>
+        <v>499.6875572857936</v>
       </c>
       <c r="O30" t="n">
-        <v>632.9799039014441</v>
+        <v>632.9799039014438</v>
       </c>
       <c r="P30" t="n">
-        <v>721.1090237341633</v>
+        <v>721.1090237341635</v>
       </c>
       <c r="Q30" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R30" t="n">
-        <v>707.8351064799828</v>
+        <v>707.835106479983</v>
       </c>
       <c r="S30" t="n">
-        <v>667.9630657811421</v>
+        <v>707.835106479983</v>
       </c>
       <c r="T30" t="n">
-        <v>483.2787753900695</v>
+        <v>707.835106479983</v>
       </c>
       <c r="U30" t="n">
-        <v>298.5944849989969</v>
+        <v>523.1508160889103</v>
       </c>
       <c r="V30" t="n">
-        <v>298.5944849989969</v>
+        <v>338.4665256978377</v>
       </c>
       <c r="W30" t="n">
-        <v>298.5944849989969</v>
+        <v>153.7822353067651</v>
       </c>
       <c r="X30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y30" t="n">
-        <v>298.5944849989969</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>204.5240782162637</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="C31" t="n">
-        <v>35.49725707363513</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="D31" t="n">
-        <v>35.49725707363513</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="E31" t="n">
-        <v>35.49725707363513</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="F31" t="n">
-        <v>35.49725707363513</v>
+        <v>29.66154361401104</v>
       </c>
       <c r="G31" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H31" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I31" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J31" t="n">
         <v>14.62699579897295</v>
       </c>
       <c r="K31" t="n">
-        <v>110.9161925022162</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L31" t="n">
-        <v>289.9368282086718</v>
+        <v>193.6476315054286</v>
       </c>
       <c r="M31" t="n">
-        <v>470.9459012209621</v>
+        <v>374.6567045177189</v>
       </c>
       <c r="N31" t="n">
-        <v>561.2104010640628</v>
+        <v>555.6657775300092</v>
       </c>
       <c r="O31" t="n">
-        <v>730.3718806453437</v>
+        <v>724.8272571112902</v>
       </c>
       <c r="P31" t="n">
-        <v>730.3718806453437</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="Q31" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R31" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S31" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T31" t="n">
-        <v>731.3497899486474</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="U31" t="n">
-        <v>731.3497899486474</v>
+        <v>546.665499557575</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3497899486474</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="W31" t="n">
-        <v>546.6654995575748</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="X31" t="n">
-        <v>389.2083686073363</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.5240782162637</v>
+        <v>177.2969187754297</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>361.9812091665025</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="C32" t="n">
-        <v>361.9812091665025</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="D32" t="n">
-        <v>361.9812091665025</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="E32" t="n">
-        <v>361.9812091665025</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="F32" t="n">
-        <v>177.2969187754298</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="G32" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H32" t="n">
-        <v>138.2076520908453</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I32" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J32" t="n">
-        <v>20.50786881661534</v>
+        <v>20.50786881661531</v>
       </c>
       <c r="K32" t="n">
-        <v>78.79182830082473</v>
+        <v>78.7918283008247</v>
       </c>
       <c r="L32" t="n">
         <v>187.0774516727205</v>
@@ -6715,37 +6715,37 @@
         <v>496.7578240095733</v>
       </c>
       <c r="O32" t="n">
-        <v>633.2474128485943</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P32" t="n">
         <v>716.0996432869758</v>
       </c>
       <c r="Q32" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R32" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S32" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T32" t="n">
-        <v>546.6654995575751</v>
+        <v>546.665499557575</v>
       </c>
       <c r="U32" t="n">
-        <v>546.6654995575751</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="V32" t="n">
-        <v>361.9812091665025</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="W32" t="n">
-        <v>361.9812091665025</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="X32" t="n">
-        <v>361.9812091665025</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.9812091665025</v>
+        <v>361.9812091665024</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C33" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D33" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E33" t="n">
-        <v>19.68738977828451</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F33" t="n">
-        <v>19.68738977828451</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G33" t="n">
-        <v>19.68738977828451</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H33" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I33" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J33" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K33" t="n">
-        <v>65.45583405098606</v>
+        <v>65.45583405098625</v>
       </c>
       <c r="L33" t="n">
-        <v>178.9659573753335</v>
+        <v>178.9659573753334</v>
       </c>
       <c r="M33" t="n">
-        <v>330.299863836174</v>
+        <v>330.2998638361739</v>
       </c>
       <c r="N33" t="n">
-        <v>499.6875572857938</v>
+        <v>499.6875572857937</v>
       </c>
       <c r="O33" t="n">
-        <v>632.9799039014441</v>
+        <v>632.979903901444</v>
       </c>
       <c r="P33" t="n">
-        <v>721.1090237341637</v>
+        <v>721.1090237341635</v>
       </c>
       <c r="Q33" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R33" t="n">
-        <v>731.3497899486478</v>
+        <v>707.835106479983</v>
       </c>
       <c r="S33" t="n">
-        <v>731.3497899486478</v>
+        <v>707.835106479983</v>
       </c>
       <c r="T33" t="n">
-        <v>546.6654995575751</v>
+        <v>707.835106479983</v>
       </c>
       <c r="U33" t="n">
-        <v>546.6654995575751</v>
+        <v>523.1508160889103</v>
       </c>
       <c r="V33" t="n">
-        <v>361.9812091665025</v>
+        <v>338.4665256978377</v>
       </c>
       <c r="W33" t="n">
-        <v>177.2969187754298</v>
+        <v>153.7822353067651</v>
       </c>
       <c r="X33" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.6538169416016</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K34" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L34" t="n">
         <v>193.6476315054286</v>
       </c>
       <c r="M34" t="n">
-        <v>258.6769401156483</v>
+        <v>374.6567045177189</v>
       </c>
       <c r="N34" t="n">
-        <v>439.6860131279387</v>
+        <v>555.6657775300092</v>
       </c>
       <c r="O34" t="n">
-        <v>608.8474927092196</v>
+        <v>724.8272571112902</v>
       </c>
       <c r="P34" t="n">
-        <v>730.371880645344</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="Q34" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R34" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S34" t="n">
-        <v>731.3497899486478</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T34" t="n">
-        <v>546.6654995575751</v>
+        <v>568.6798669721909</v>
       </c>
       <c r="U34" t="n">
-        <v>365.55653561906</v>
+        <v>383.9955765811183</v>
       </c>
       <c r="V34" t="n">
-        <v>365.55653561906</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W34" t="n">
-        <v>365.55653561906</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="X34" t="n">
-        <v>365.55653561906</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y34" t="n">
-        <v>365.55653561906</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>199.3112861900456</v>
+        <v>203.5197932702885</v>
       </c>
       <c r="C35" t="n">
-        <v>14.62699579897295</v>
+        <v>18.83550287921588</v>
       </c>
       <c r="D35" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="E35" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="F35" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="G35" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="H35" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="I35" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="J35" t="n">
-        <v>20.50786881661514</v>
+        <v>20.50786881661531</v>
       </c>
       <c r="K35" t="n">
-        <v>78.79182830082453</v>
+        <v>78.79182830082493</v>
       </c>
       <c r="L35" t="n">
-        <v>187.0774516727203</v>
+        <v>187.0774516727207</v>
       </c>
       <c r="M35" t="n">
-        <v>338.4437735878634</v>
+        <v>338.4437735878638</v>
       </c>
       <c r="N35" t="n">
-        <v>496.7578240095731</v>
+        <v>496.7578240095735</v>
       </c>
       <c r="O35" t="n">
-        <v>633.2474128485942</v>
+        <v>633.2474128485945</v>
       </c>
       <c r="P35" t="n">
-        <v>716.0996432869758</v>
+        <v>716.0996432869759</v>
       </c>
       <c r="Q35" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486478</v>
       </c>
       <c r="R35" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486478</v>
       </c>
       <c r="S35" t="n">
-        <v>731.3497899486476</v>
+        <v>572.8883740524338</v>
       </c>
       <c r="T35" t="n">
-        <v>731.3497899486476</v>
+        <v>572.8883740524338</v>
       </c>
       <c r="U35" t="n">
-        <v>731.3497899486476</v>
+        <v>572.8883740524338</v>
       </c>
       <c r="V35" t="n">
-        <v>568.6798669721909</v>
+        <v>572.8883740524338</v>
       </c>
       <c r="W35" t="n">
-        <v>383.9955765811183</v>
+        <v>572.8883740524338</v>
       </c>
       <c r="X35" t="n">
-        <v>383.9955765811183</v>
+        <v>572.8883740524338</v>
       </c>
       <c r="Y35" t="n">
-        <v>199.3112861900456</v>
+        <v>388.2040836613612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="C36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="D36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="E36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="F36" t="n">
-        <v>32.34112879204659</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="G36" t="n">
-        <v>32.34112879204659</v>
+        <v>114.9842390399022</v>
       </c>
       <c r="H36" t="n">
-        <v>32.34112879204659</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="I36" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="J36" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="K36" t="n">
-        <v>65.45583405098614</v>
+        <v>65.45583405098608</v>
       </c>
       <c r="L36" t="n">
         <v>178.9659573753333</v>
@@ -7028,40 +7028,40 @@
         <v>330.2998638361738</v>
       </c>
       <c r="N36" t="n">
-        <v>499.6875572857936</v>
+        <v>499.6875572857938</v>
       </c>
       <c r="O36" t="n">
-        <v>632.9799039014439</v>
+        <v>632.9799039014441</v>
       </c>
       <c r="P36" t="n">
-        <v>721.1090237341635</v>
+        <v>721.1090237341637</v>
       </c>
       <c r="Q36" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486478</v>
       </c>
       <c r="R36" t="n">
-        <v>731.3497899486476</v>
+        <v>707.8351064799831</v>
       </c>
       <c r="S36" t="n">
-        <v>731.3497899486476</v>
+        <v>707.8351064799831</v>
       </c>
       <c r="T36" t="n">
-        <v>731.3497899486476</v>
+        <v>707.8351064799831</v>
       </c>
       <c r="U36" t="n">
-        <v>546.665499557575</v>
+        <v>620.588148713505</v>
       </c>
       <c r="V36" t="n">
-        <v>361.9812091665024</v>
+        <v>435.9038583224324</v>
       </c>
       <c r="W36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="X36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.2969187754297</v>
+        <v>251.2195679313597</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.62699579897295</v>
+        <v>177.2969187754298</v>
       </c>
       <c r="C37" t="n">
-        <v>14.62699579897295</v>
+        <v>177.2969187754298</v>
       </c>
       <c r="D37" t="n">
-        <v>14.62699579897295</v>
+        <v>177.2969187754298</v>
       </c>
       <c r="E37" t="n">
-        <v>14.62699579897295</v>
+        <v>177.2969187754298</v>
       </c>
       <c r="F37" t="n">
-        <v>14.62699579897295</v>
+        <v>29.66154361401112</v>
       </c>
       <c r="G37" t="n">
-        <v>14.62699579897295</v>
+        <v>29.66154361401112</v>
       </c>
       <c r="H37" t="n">
-        <v>14.62699579897295</v>
+        <v>29.66154361401112</v>
       </c>
       <c r="I37" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="J37" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="K37" t="n">
-        <v>14.62699579897295</v>
+        <v>14.62699579897296</v>
       </c>
       <c r="L37" t="n">
         <v>193.6476315054286</v>
@@ -7107,40 +7107,40 @@
         <v>374.6567045177189</v>
       </c>
       <c r="N37" t="n">
-        <v>439.6860131279386</v>
+        <v>555.6657775300092</v>
       </c>
       <c r="O37" t="n">
-        <v>608.8474927092195</v>
+        <v>724.8272571112902</v>
       </c>
       <c r="P37" t="n">
-        <v>730.3718806453439</v>
+        <v>730.371880645344</v>
       </c>
       <c r="Q37" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486478</v>
       </c>
       <c r="R37" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486478</v>
       </c>
       <c r="S37" t="n">
-        <v>731.3497899486476</v>
+        <v>731.3497899486478</v>
       </c>
       <c r="T37" t="n">
-        <v>731.3497899486476</v>
+        <v>546.6654995575751</v>
       </c>
       <c r="U37" t="n">
-        <v>731.3497899486476</v>
+        <v>546.6654995575751</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3497899486476</v>
+        <v>361.9812091665025</v>
       </c>
       <c r="W37" t="n">
-        <v>546.665499557575</v>
+        <v>177.2969187754298</v>
       </c>
       <c r="X37" t="n">
-        <v>361.9812091665024</v>
+        <v>177.2969187754298</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.5297144764314</v>
+        <v>177.2969187754298</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>731.3497899486481</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="C38" t="n">
-        <v>731.3497899486481</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="D38" t="n">
-        <v>731.3497899486481</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="E38" t="n">
-        <v>568.6798669721912</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="F38" t="n">
-        <v>383.9955765811185</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G38" t="n">
-        <v>199.3112861900457</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H38" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I38" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J38" t="n">
-        <v>20.50786881661566</v>
+        <v>20.50786881661534</v>
       </c>
       <c r="K38" t="n">
-        <v>78.79182830082505</v>
+        <v>78.79182830082473</v>
       </c>
       <c r="L38" t="n">
-        <v>187.0774516727208</v>
+        <v>187.0774516727206</v>
       </c>
       <c r="M38" t="n">
-        <v>338.4437735878639</v>
+        <v>338.4437735878637</v>
       </c>
       <c r="N38" t="n">
-        <v>496.7578240095736</v>
+        <v>496.7578240095734</v>
       </c>
       <c r="O38" t="n">
-        <v>633.2474128485946</v>
+        <v>633.2474128485942</v>
       </c>
       <c r="P38" t="n">
-        <v>716.0996432869763</v>
+        <v>716.0996432869758</v>
       </c>
       <c r="Q38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="U38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="V38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="W38" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="X38" t="n">
-        <v>731.3497899486481</v>
+        <v>546.665499557575</v>
       </c>
       <c r="Y38" t="n">
-        <v>731.3497899486481</v>
+        <v>361.9812091665024</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14.62699579897296</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="C39" t="n">
-        <v>14.62699579897296</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="D39" t="n">
-        <v>14.62699579897296</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="E39" t="n">
-        <v>14.62699579897296</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="F39" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G39" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H39" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I39" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J39" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897313</v>
       </c>
       <c r="K39" t="n">
-        <v>65.45583405098671</v>
+        <v>65.45583405098625</v>
       </c>
       <c r="L39" t="n">
-        <v>178.9659573753339</v>
+        <v>178.9659573753334</v>
       </c>
       <c r="M39" t="n">
-        <v>330.2998638361744</v>
+        <v>330.2998638361739</v>
       </c>
       <c r="N39" t="n">
-        <v>499.6875572857942</v>
+        <v>499.6875572857937</v>
       </c>
       <c r="O39" t="n">
-        <v>632.9799039014445</v>
+        <v>632.979903901444</v>
       </c>
       <c r="P39" t="n">
-        <v>721.109023734164</v>
+        <v>721.1090237341635</v>
       </c>
       <c r="Q39" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R39" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S39" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T39" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="U39" t="n">
-        <v>731.3497899486481</v>
+        <v>546.665499557575</v>
       </c>
       <c r="V39" t="n">
-        <v>731.3497899486481</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="W39" t="n">
-        <v>551.0381277026789</v>
+        <v>177.2969187754297</v>
       </c>
       <c r="X39" t="n">
-        <v>366.3538373116062</v>
+        <v>159.5827857823561</v>
       </c>
       <c r="Y39" t="n">
-        <v>181.6695469205334</v>
+        <v>159.5827857823561</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.2623709603916</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C40" t="n">
-        <v>162.2623709603916</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D40" t="n">
-        <v>162.2623709603916</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E40" t="n">
-        <v>162.2623709603916</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F40" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G40" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H40" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I40" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J40" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K40" t="n">
-        <v>20.171619333027</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L40" t="n">
-        <v>199.1922550394827</v>
+        <v>193.6476315054286</v>
       </c>
       <c r="M40" t="n">
-        <v>380.2013280517731</v>
+        <v>374.6567045177189</v>
       </c>
       <c r="N40" t="n">
-        <v>561.2104010640635</v>
+        <v>555.6657775300092</v>
       </c>
       <c r="O40" t="n">
-        <v>730.3718806453444</v>
+        <v>724.8272571112902</v>
       </c>
       <c r="P40" t="n">
-        <v>730.3718806453444</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="Q40" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R40" t="n">
-        <v>600.0044349512085</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S40" t="n">
-        <v>415.3201445601358</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T40" t="n">
-        <v>230.635854169063</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="U40" t="n">
-        <v>162.2623709603916</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="V40" t="n">
-        <v>162.2623709603916</v>
+        <v>546.665499557575</v>
       </c>
       <c r="W40" t="n">
-        <v>162.2623709603916</v>
+        <v>381.214004867504</v>
       </c>
       <c r="X40" t="n">
-        <v>162.2623709603916</v>
+        <v>381.214004867504</v>
       </c>
       <c r="Y40" t="n">
-        <v>162.2623709603916</v>
+        <v>196.5297144764314</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.9812091665025</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="C41" t="n">
-        <v>177.2969187754298</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="D41" t="n">
-        <v>177.2969187754298</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E41" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F41" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G41" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H41" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I41" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J41" t="n">
-        <v>20.5078688166152</v>
+        <v>20.50786881661534</v>
       </c>
       <c r="K41" t="n">
-        <v>78.79182830082459</v>
+        <v>78.79182830082473</v>
       </c>
       <c r="L41" t="n">
-        <v>187.0774516727204</v>
+        <v>187.0774516727205</v>
       </c>
       <c r="M41" t="n">
         <v>338.4437735878635</v>
       </c>
       <c r="N41" t="n">
-        <v>496.7578240095733</v>
+        <v>496.7578240095731</v>
       </c>
       <c r="O41" t="n">
         <v>633.2474128485942</v>
@@ -7432,31 +7432,31 @@
         <v>716.0996432869758</v>
       </c>
       <c r="Q41" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R41" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S41" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T41" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="U41" t="n">
-        <v>731.3497899486479</v>
+        <v>546.665499557575</v>
       </c>
       <c r="V41" t="n">
-        <v>546.6654995575752</v>
+        <v>546.665499557575</v>
       </c>
       <c r="W41" t="n">
-        <v>546.6654995575752</v>
+        <v>546.665499557575</v>
       </c>
       <c r="X41" t="n">
-        <v>546.6654995575752</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="Y41" t="n">
-        <v>546.6654995575752</v>
+        <v>199.3112861900456</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C42" t="n">
-        <v>558.596674870465</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D42" t="n">
-        <v>411.0083682294089</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E42" t="n">
-        <v>253.3988392322636</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F42" t="n">
-        <v>108.4430492488804</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G42" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H42" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I42" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J42" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897313</v>
       </c>
       <c r="K42" t="n">
-        <v>65.45583405098608</v>
+        <v>65.45583405098625</v>
       </c>
       <c r="L42" t="n">
-        <v>178.9659573753333</v>
+        <v>178.9659573753334</v>
       </c>
       <c r="M42" t="n">
-        <v>330.2998638361742</v>
+        <v>330.2998638361739</v>
       </c>
       <c r="N42" t="n">
-        <v>499.687557285794</v>
+        <v>499.6875572857937</v>
       </c>
       <c r="O42" t="n">
-        <v>632.9799039014442</v>
+        <v>632.979903901444</v>
       </c>
       <c r="P42" t="n">
-        <v>721.1090237341638</v>
+        <v>721.1090237341635</v>
       </c>
       <c r="Q42" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R42" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S42" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T42" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="U42" t="n">
-        <v>731.3497899486479</v>
+        <v>546.665499557575</v>
       </c>
       <c r="V42" t="n">
-        <v>731.3497899486479</v>
+        <v>361.9812091665024</v>
       </c>
       <c r="W42" t="n">
-        <v>731.3497899486479</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="X42" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y42" t="n">
-        <v>731.3497899486479</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49725707363513</v>
+        <v>364.7627808801166</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49725707363513</v>
+        <v>364.7627808801166</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49725707363513</v>
+        <v>364.7627808801166</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49725707363513</v>
+        <v>364.7627808801166</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49725707363513</v>
+        <v>364.7627808801166</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49725707363513</v>
+        <v>196.1513961546043</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49725707363513</v>
+        <v>140.6460594554596</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49725707363513</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J43" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K43" t="n">
-        <v>20.17161933302688</v>
+        <v>20.17161933302677</v>
       </c>
       <c r="L43" t="n">
-        <v>199.1922550394826</v>
+        <v>199.1922550394825</v>
       </c>
       <c r="M43" t="n">
-        <v>380.2013280517729</v>
+        <v>380.2013280517727</v>
       </c>
       <c r="N43" t="n">
-        <v>561.2104010640633</v>
+        <v>561.210401064063</v>
       </c>
       <c r="O43" t="n">
-        <v>730.3718806453442</v>
+        <v>730.3718806453439</v>
       </c>
       <c r="P43" t="n">
-        <v>730.3718806453442</v>
+        <v>730.3718806453439</v>
       </c>
       <c r="Q43" t="n">
-        <v>731.3497899486479</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="R43" t="n">
-        <v>600.0044349512083</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="S43" t="n">
-        <v>415.3201445601356</v>
+        <v>731.3497899486476</v>
       </c>
       <c r="T43" t="n">
-        <v>230.6358541690629</v>
+        <v>546.665499557575</v>
       </c>
       <c r="U43" t="n">
-        <v>45.9515637779902</v>
+        <v>546.665499557575</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49725707363513</v>
+        <v>546.665499557575</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49725707363513</v>
+        <v>546.665499557575</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49725707363513</v>
+        <v>546.665499557575</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49725707363513</v>
+        <v>546.665499557575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.3112861900457</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="C44" t="n">
-        <v>199.3112861900457</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="D44" t="n">
-        <v>14.62699579897296</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="E44" t="n">
-        <v>14.62699579897296</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="F44" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G44" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H44" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I44" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J44" t="n">
-        <v>20.5078688166152</v>
+        <v>20.50786881661534</v>
       </c>
       <c r="K44" t="n">
-        <v>78.79182830082459</v>
+        <v>78.79182830082473</v>
       </c>
       <c r="L44" t="n">
-        <v>187.0774516727204</v>
+        <v>187.0774516727203</v>
       </c>
       <c r="M44" t="n">
-        <v>338.4437735878635</v>
+        <v>338.4437735878634</v>
       </c>
       <c r="N44" t="n">
-        <v>496.7578240095731</v>
+        <v>496.757824009573</v>
       </c>
       <c r="O44" t="n">
-        <v>633.2474128485944</v>
+        <v>633.2474128485941</v>
       </c>
       <c r="P44" t="n">
-        <v>716.0996432869761</v>
+        <v>716.0996432869757</v>
       </c>
       <c r="Q44" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R44" t="n">
-        <v>731.3497899486481</v>
+        <v>727.1412828684047</v>
       </c>
       <c r="S44" t="n">
-        <v>731.3497899486481</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="T44" t="n">
-        <v>731.3497899486481</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="U44" t="n">
-        <v>731.3497899486481</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="V44" t="n">
-        <v>731.3497899486481</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="W44" t="n">
-        <v>731.3497899486481</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="X44" t="n">
-        <v>546.6654995575753</v>
+        <v>568.6798669721908</v>
       </c>
       <c r="Y44" t="n">
-        <v>383.9955765811185</v>
+        <v>568.6798669721908</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.62699579897296</v>
+        <v>481.2249687657585</v>
       </c>
       <c r="C45" t="n">
-        <v>14.62699579897296</v>
+        <v>308.4718536875757</v>
       </c>
       <c r="D45" t="n">
-        <v>14.62699579897296</v>
+        <v>308.4718536875757</v>
       </c>
       <c r="E45" t="n">
-        <v>14.62699579897296</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="F45" t="n">
-        <v>14.62699579897296</v>
+        <v>150.8623246904305</v>
       </c>
       <c r="G45" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H45" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I45" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J45" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897301</v>
       </c>
       <c r="K45" t="n">
-        <v>65.45583405098608</v>
+        <v>65.45583405098614</v>
       </c>
       <c r="L45" t="n">
         <v>178.9659573753333</v>
@@ -7742,37 +7742,37 @@
         <v>499.6875572857936</v>
       </c>
       <c r="O45" t="n">
-        <v>632.9799039014438</v>
+        <v>632.9799039014439</v>
       </c>
       <c r="P45" t="n">
-        <v>721.1090237341633</v>
+        <v>721.1090237341634</v>
       </c>
       <c r="Q45" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R45" t="n">
-        <v>731.3497899486481</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="S45" t="n">
-        <v>731.3497899486481</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="T45" t="n">
-        <v>731.3497899486481</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="U45" t="n">
-        <v>546.6654995575753</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="V45" t="n">
-        <v>361.9812091665026</v>
+        <v>707.8351064799829</v>
       </c>
       <c r="W45" t="n">
-        <v>177.2969187754298</v>
+        <v>665.9092591568311</v>
       </c>
       <c r="X45" t="n">
-        <v>14.62699579897296</v>
+        <v>665.9092591568311</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.62699579897296</v>
+        <v>481.2249687657585</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.0862121355378</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="C46" t="n">
-        <v>163.0862121355378</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="D46" t="n">
-        <v>163.0862121355378</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="E46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="F46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="G46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="H46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="I46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="J46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="K46" t="n">
-        <v>14.62699579897296</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="L46" t="n">
         <v>193.6476315054286</v>
       </c>
       <c r="M46" t="n">
-        <v>258.6769401156486</v>
+        <v>374.6567045177189</v>
       </c>
       <c r="N46" t="n">
-        <v>439.686013127939</v>
+        <v>555.6657775300092</v>
       </c>
       <c r="O46" t="n">
-        <v>608.84749270922</v>
+        <v>724.8272571112902</v>
       </c>
       <c r="P46" t="n">
-        <v>730.3718806453444</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="Q46" t="n">
-        <v>731.3497899486481</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="R46" t="n">
-        <v>717.1390833087561</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="S46" t="n">
-        <v>717.1390833087561</v>
+        <v>731.3497899486475</v>
       </c>
       <c r="T46" t="n">
-        <v>532.4547929176833</v>
+        <v>546.6654995575749</v>
       </c>
       <c r="U46" t="n">
-        <v>532.4547929176833</v>
+        <v>383.9955765811181</v>
       </c>
       <c r="V46" t="n">
-        <v>347.7705025266105</v>
+        <v>199.3112861900456</v>
       </c>
       <c r="W46" t="n">
-        <v>163.0862121355378</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="X46" t="n">
-        <v>163.0862121355378</v>
+        <v>14.62699579897295</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.0862121355378</v>
+        <v>14.62699579897295</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>124.9024336943494</v>
+        <v>124.9024336943493</v>
       </c>
       <c r="K5" t="n">
         <v>137.2266176740185</v>
@@ -8224,19 +8224,19 @@
         <v>133.8991093781746</v>
       </c>
       <c r="M5" t="n">
-        <v>117.7989612967009</v>
+        <v>117.7989612967008</v>
       </c>
       <c r="N5" t="n">
         <v>115.161169454229</v>
       </c>
       <c r="O5" t="n">
-        <v>121.8766385639401</v>
+        <v>121.87663856394</v>
       </c>
       <c r="P5" t="n">
         <v>137.9971497203325</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.0729689043774</v>
+        <v>151.0729689043773</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8297,22 +8297,22 @@
         <v>92.92376190472712</v>
       </c>
       <c r="K6" t="n">
-        <v>81.85084906027286</v>
+        <v>81.85084906027285</v>
       </c>
       <c r="L6" t="n">
-        <v>64.43788311270731</v>
+        <v>64.4378831127073</v>
       </c>
       <c r="M6" t="n">
-        <v>56.132387963067</v>
+        <v>56.13238796306699</v>
       </c>
       <c r="N6" t="n">
-        <v>43.42771313132249</v>
+        <v>43.42771313132248</v>
       </c>
       <c r="O6" t="n">
-        <v>61.61100485780899</v>
+        <v>61.61100485780898</v>
       </c>
       <c r="P6" t="n">
-        <v>68.48840411769621</v>
+        <v>68.48840411769619</v>
       </c>
       <c r="Q6" t="n">
         <v>94.9455293546489</v>
@@ -8376,7 +8376,7 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K7" t="n">
-        <v>94.09325950263647</v>
+        <v>94.09325950263646</v>
       </c>
       <c r="L7" t="n">
         <v>90.95429743275227</v>
@@ -8385,7 +8385,7 @@
         <v>92.68963881959431</v>
       </c>
       <c r="N7" t="n">
-        <v>82.74721389686316</v>
+        <v>82.74721389686314</v>
       </c>
       <c r="O7" t="n">
         <v>96.43575990153221</v>
@@ -8455,16 +8455,16 @@
         <v>89.76036546048012</v>
       </c>
       <c r="K8" t="n">
-        <v>84.5577670328716</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L8" t="n">
         <v>68.55874285947689</v>
       </c>
       <c r="M8" t="n">
-        <v>45.09521380386133</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N8" t="n">
-        <v>41.28099931752749</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O8" t="n">
         <v>52.11368889882766</v>
@@ -8534,10 +8534,10 @@
         <v>71.99338681190339</v>
       </c>
       <c r="K9" t="n">
-        <v>46.07750428554138</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L9" t="n">
-        <v>16.33620635813517</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>26.18458021020076</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.66654338828052</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8853,22 +8853,22 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M13" t="n">
-        <v>121.6894465222129</v>
+        <v>123.2668771145681</v>
       </c>
       <c r="N13" t="n">
         <v>159.7638918243339</v>
       </c>
       <c r="O13" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>140.4068258466027</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9096,7 +9096,7 @@
         <v>167.1288489445656</v>
       </c>
       <c r="N16" t="n">
-        <v>114.9141328192819</v>
+        <v>115.9019199943362</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>140.4068258466027</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,16 +9324,16 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0135169984386</v>
+        <v>63.72927391743468</v>
       </c>
       <c r="L19" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M19" t="n">
-        <v>113.4674359183842</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O19" t="n">
         <v>169.5633330205178</v>
@@ -9342,7 +9342,7 @@
         <v>140.4068258466027</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.96888953780733</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0135169984386</v>
+        <v>19.35233197905519</v>
       </c>
       <c r="L22" t="n">
-        <v>77.31250458383337</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M22" t="n">
-        <v>167.1288489445657</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N22" t="n">
-        <v>159.7638918243339</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O22" t="n">
         <v>169.5633330205178</v>
@@ -9798,25 +9798,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>20.34011915410964</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L25" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M25" t="n">
-        <v>167.1288489445657</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>159.7638918243339</v>
+        <v>112.4796487433299</v>
       </c>
       <c r="O25" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P25" t="n">
-        <v>17.6549188404165</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.96888953780733</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10041,10 +10041,10 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>49.97757177075698</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N28" t="n">
-        <v>159.7638918243339</v>
+        <v>43.60040182557925</v>
       </c>
       <c r="O28" t="n">
         <v>169.5633330205178</v>
@@ -10053,7 +10053,7 @@
         <v>140.4068258466027</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>13.7517021466778</v>
       </c>
       <c r="L31" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M31" t="n">
-        <v>167.1288489445656</v>
+        <v>167.1288489445657</v>
       </c>
       <c r="N31" t="n">
-        <v>68.10270680495049</v>
+        <v>159.7638918243339</v>
       </c>
       <c r="O31" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>17.6549188404165</v>
+        <v>24.24333584784822</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M34" t="n">
-        <v>49.97757177075698</v>
+        <v>167.1288489445657</v>
       </c>
       <c r="N34" t="n">
         <v>159.7638918243339</v>
@@ -10524,10 +10524,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P34" t="n">
-        <v>140.4068258466027</v>
+        <v>24.24333584784822</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10755,13 +10755,13 @@
         <v>167.1288489445657</v>
       </c>
       <c r="N37" t="n">
-        <v>42.61261465052513</v>
+        <v>159.7638918243339</v>
       </c>
       <c r="O37" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P37" t="n">
-        <v>140.4068258466027</v>
+        <v>23.25554867279409</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10983,25 +10983,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>19.35233197905562</v>
+        <v>13.7517021466778</v>
       </c>
       <c r="L40" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M40" t="n">
-        <v>167.1288489445658</v>
+        <v>167.1288489445657</v>
       </c>
       <c r="N40" t="n">
-        <v>159.763891824334</v>
+        <v>159.7638918243339</v>
       </c>
       <c r="O40" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P40" t="n">
-        <v>17.6549188404165</v>
+        <v>24.24333584784822</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>19.35233197905551</v>
+        <v>19.35233197905539</v>
       </c>
       <c r="L43" t="n">
         <v>168.9736896032166</v>
@@ -11463,19 +11463,19 @@
         <v>168.9736896032166</v>
       </c>
       <c r="M46" t="n">
-        <v>49.97757177075727</v>
+        <v>167.1288489445656</v>
       </c>
       <c r="N46" t="n">
-        <v>159.763891824334</v>
+        <v>159.7638918243338</v>
       </c>
       <c r="O46" t="n">
         <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>140.4068258466027</v>
+        <v>24.2433358478481</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.95667671286152</v>
+        <v>66.96888953780733</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>13.83254838793333</v>
+        <v>13.83254838793334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>222.0748120085953</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>224.4564159933789</v>
@@ -23275,7 +23275,7 @@
         <v>229.8675362387189</v>
       </c>
       <c r="H11" t="n">
-        <v>133.2900042916852</v>
+        <v>316.1274517788472</v>
       </c>
       <c r="I11" t="n">
         <v>122.3448497289536</v>
@@ -23311,13 +23311,13 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T11" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403199</v>
       </c>
       <c r="U11" t="n">
         <v>251.3057810423084</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>167.4899977758272</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23339,7 +23339,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>157.5788708337872</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.27953663397798</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.90883179085685</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U12" t="n">
-        <v>41.74405625092746</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V12" t="n">
-        <v>58.90410709285734</v>
+        <v>49.07128355249321</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>67.15189926283813</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131635</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -23424,22 +23424,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>48.98418981010728</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.0604078751873</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>205.5519732759834</v>
       </c>
       <c r="T13" t="n">
-        <v>224.2121979517808</v>
+        <v>63.16897420508863</v>
       </c>
       <c r="U13" t="n">
-        <v>285.9996712245996</v>
+        <v>103.1622237374377</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977724</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002536</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23500,16 +23500,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>195.5615090079062</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>200.2805882681256</v>
       </c>
       <c r="F14" t="n">
-        <v>224.456415993379</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>229.867536238719</v>
+        <v>229.8675362387189</v>
       </c>
       <c r="H14" t="n">
         <v>316.1274517788472</v>
@@ -23551,13 +23551,13 @@
         <v>213.5544479011939</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3057810423084</v>
+        <v>90.26255729561623</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>167.6926695133927</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -23582,19 +23582,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>53.94936137773108</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U15" t="n">
-        <v>224.5815037380894</v>
+        <v>41.74405625092754</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249324</v>
       </c>
       <c r="W15" t="n">
-        <v>67.15189926283819</v>
+        <v>67.15189926283816</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>43.41840586178614</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -23661,22 +23661,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>48.98418981010774</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.0410685413695</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.0604078751873</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S16" t="n">
-        <v>205.5519732759834</v>
+        <v>22.71452578882153</v>
       </c>
       <c r="T16" t="n">
-        <v>224.2121979517808</v>
+        <v>41.37475046461893</v>
       </c>
       <c r="U16" t="n">
         <v>285.9996712245996</v>
@@ -23715,7 +23715,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002537</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200.8789625042331</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
@@ -23740,19 +23740,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>200.2805882681255</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>246.2506397338486</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>229.8675362387189</v>
+        <v>412.7049837258808</v>
       </c>
       <c r="H17" t="n">
-        <v>316.1274517788472</v>
+        <v>251.4684320111985</v>
       </c>
       <c r="I17" t="n">
-        <v>122.3448497289536</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>6.809599373345463</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403201</v>
       </c>
       <c r="U17" t="n">
         <v>251.3057810423084</v>
@@ -23797,7 +23797,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>188.0241516440075</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23825,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>84.84365372724803</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T18" t="n">
-        <v>10.90883179085691</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U18" t="n">
-        <v>41.74405625092751</v>
+        <v>86.81781662537526</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249324</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>67.15189926283816</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131638</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.9252708782571</v>
@@ -23910,7 +23910,7 @@
         <v>153.0604078751873</v>
       </c>
       <c r="I19" t="n">
-        <v>124.7588730199218</v>
+        <v>94.37377612707462</v>
       </c>
       <c r="J19" t="n">
         <v>20.66155866191555</v>
@@ -23949,16 +23949,16 @@
         <v>285.9996712245996</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977727</v>
       </c>
       <c r="W19" t="n">
-        <v>106.7947025882857</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>43.30291244514737</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.91122638060631</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>184.1476481917807</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.809599373345463</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.5544479011939</v>
+        <v>30.71700041403201</v>
       </c>
       <c r="U20" t="n">
-        <v>97.07215666896172</v>
+        <v>68.46833355514653</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>145.6957740353575</v>
       </c>
       <c r="W20" t="n">
-        <v>167.6926695133927</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>366.695177121729</v>
       </c>
       <c r="Y20" t="n">
-        <v>203.8496242640739</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>95.77376932891478</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>147.5965106530784</v>
       </c>
       <c r="T21" t="n">
-        <v>10.9088317908569</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U21" t="n">
-        <v>41.74405625092751</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V21" t="n">
-        <v>49.07128355249321</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>232.4523550868572</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -24141,7 +24141,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>5.882047131564888</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H22" t="n">
         <v>153.0604078751873</v>
@@ -24177,19 +24177,19 @@
         <v>130.0319014474652</v>
       </c>
       <c r="S22" t="n">
-        <v>22.71452578882149</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T22" t="n">
-        <v>224.2121979517808</v>
+        <v>63.16897420508863</v>
       </c>
       <c r="U22" t="n">
-        <v>103.1622237374377</v>
+        <v>103.1622237374378</v>
       </c>
       <c r="V22" t="n">
-        <v>70.09890357977724</v>
+        <v>70.09890357977727</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002537</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>200.8789625042332</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>184.1476481917807</v>
       </c>
       <c r="D23" t="n">
-        <v>195.5615090079062</v>
+        <v>202.3711083812518</v>
       </c>
       <c r="E23" t="n">
-        <v>200.2805882681255</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>224.4564159933789</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>229.8675362387189</v>
+        <v>412.7049837258808</v>
       </c>
       <c r="H23" t="n">
         <v>316.1274517788472</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.809599373345463</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>156.8768017372518</v>
@@ -24274,7 +24274,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>203.8496242640739</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -24338,22 +24338,22 @@
         <v>147.5965106530784</v>
       </c>
       <c r="T24" t="n">
-        <v>10.9088317908569</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U24" t="n">
-        <v>41.74405625092751</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>94.14504392694096</v>
       </c>
       <c r="W24" t="n">
-        <v>94.76033776046879</v>
+        <v>67.15189926283816</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131638</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>20.83370393142414</v>
       </c>
     </row>
     <row r="25">
@@ -24369,22 +24369,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>31.16917625290677</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.0604078751873</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J25" t="n">
         <v>20.66155866191555</v>
@@ -24420,16 +24420,16 @@
         <v>224.2121979517808</v>
       </c>
       <c r="U25" t="n">
-        <v>285.9996712245996</v>
+        <v>124.9564474779075</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977727</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002537</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>43.30291244514737</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24454,13 +24454,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>246.2506397338485</v>
+        <v>224.456415993379</v>
       </c>
       <c r="G26" t="n">
-        <v>229.8675362387189</v>
+        <v>412.7049837258808</v>
       </c>
       <c r="H26" t="n">
-        <v>133.2900042916852</v>
+        <v>316.1274517788472</v>
       </c>
       <c r="I26" t="n">
         <v>122.3448497289536</v>
@@ -24496,13 +24496,13 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T26" t="n">
-        <v>30.71700041403195</v>
+        <v>30.71700041403201</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3057810423084</v>
+        <v>68.46833355514653</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>167.4899977758272</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -24530,19 +24530,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>99.09479153850448</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>99.35367080851994</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>46.90116789696087</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>147.5965106530784</v>
@@ -24578,19 +24578,19 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U27" t="n">
-        <v>63.53827999139713</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V27" t="n">
-        <v>49.07128355249318</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>67.1518992628381</v>
+        <v>67.15189926283816</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.83370393142408</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S28" t="n">
-        <v>171.7868949802782</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T28" t="n">
-        <v>41.37475046461886</v>
+        <v>63.16897420508863</v>
       </c>
       <c r="U28" t="n">
-        <v>103.1622237374377</v>
+        <v>103.1622237374378</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977727</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002537</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24685,13 +24685,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>173.7672852674365</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>200.2805882681255</v>
       </c>
       <c r="F29" t="n">
-        <v>224.456415993379</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>412.7049837258808</v>
@@ -24733,19 +24733,19 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T29" t="n">
-        <v>52.51122415450171</v>
+        <v>52.51122415450172</v>
       </c>
       <c r="U29" t="n">
-        <v>68.46833355514656</v>
+        <v>251.3057810423084</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>167.6926695133927</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>188.0241516440075</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24773,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>108.1231903612261</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T30" t="n">
-        <v>10.90883179085696</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U30" t="n">
-        <v>41.74405625092756</v>
+        <v>41.74405625092751</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249321</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>67.15189926283813</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>66.69794249576407</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24849,10 +24849,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9252708782571</v>
+        <v>152.0410685413694</v>
       </c>
       <c r="H31" t="n">
         <v>153.0604078751873</v>
@@ -24861,7 +24861,7 @@
         <v>124.7588730199218</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>224.2121979517808</v>
       </c>
       <c r="U31" t="n">
-        <v>285.9996712245996</v>
+        <v>103.1622237374377</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977724</v>
       </c>
       <c r="W31" t="n">
-        <v>103.2551294002537</v>
+        <v>103.2551294002536</v>
       </c>
       <c r="X31" t="n">
-        <v>70.25780029157318</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91122638060637</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>222.6731862447028</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24928,16 +24928,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>224.4564159933789</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>412.7049837258808</v>
+        <v>229.8675362387189</v>
       </c>
       <c r="H32" t="n">
-        <v>277.4290777611085</v>
+        <v>316.1274517788472</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>122.3448497289536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>156.8768017372518</v>
       </c>
       <c r="T32" t="n">
-        <v>30.71700041403195</v>
+        <v>30.71700041403199</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3057810423084</v>
+        <v>68.4683335551465</v>
       </c>
       <c r="V32" t="n">
-        <v>145.6957740353574</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -25004,7 +25004,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25013,7 +25013,7 @@
         <v>134.8729756025429</v>
       </c>
       <c r="H33" t="n">
-        <v>94.3438807690015</v>
+        <v>99.35367080851994</v>
       </c>
       <c r="I33" t="n">
         <v>46.90116789696087</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>147.5965106530784</v>
       </c>
       <c r="T33" t="n">
-        <v>10.90883179085688</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U33" t="n">
-        <v>224.5815037380894</v>
+        <v>41.74405625092751</v>
       </c>
       <c r="V33" t="n">
-        <v>49.07128355249318</v>
+        <v>49.07128355249321</v>
       </c>
       <c r="W33" t="n">
-        <v>67.1518992628381</v>
+        <v>67.15189926283813</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>66.69794249576407</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -25128,16 +25128,16 @@
         <v>205.5519732759834</v>
       </c>
       <c r="T34" t="n">
-        <v>41.37475046461886</v>
+        <v>63.16897420508863</v>
       </c>
       <c r="U34" t="n">
-        <v>106.7017969254697</v>
+        <v>103.1622237374377</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977724</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002536</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>200.8789625042331</v>
       </c>
       <c r="C35" t="n">
         <v>184.1476481917807</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>352.4383107451579</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25204,7 +25204,7 @@
         <v>6.809599373345463</v>
       </c>
       <c r="S35" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>213.5544479011939</v>
@@ -25213,10 +25213,10 @@
         <v>251.3057810423084</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4899977758272</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>167.6926695133927</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25244,16 +25244,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>99.35367080851994</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.36417623381797</v>
+        <v>46.90116789696087</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>147.5965106530784</v>
@@ -25289,13 +25289,13 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U36" t="n">
-        <v>41.74405625092751</v>
+        <v>138.2070155492761</v>
       </c>
       <c r="V36" t="n">
-        <v>49.07128355249321</v>
+        <v>49.07128355249318</v>
       </c>
       <c r="W36" t="n">
-        <v>67.15189926283813</v>
+        <v>67.1518992628381</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25323,7 +25323,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.9252708782571</v>
@@ -25332,7 +25332,7 @@
         <v>153.0604078751873</v>
       </c>
       <c r="I37" t="n">
-        <v>124.7588730199218</v>
+        <v>109.874670683034</v>
       </c>
       <c r="J37" t="n">
         <v>20.66155866191555</v>
@@ -25365,22 +25365,22 @@
         <v>205.5519732759834</v>
       </c>
       <c r="T37" t="n">
-        <v>224.2121979517808</v>
+        <v>41.37475046461887</v>
       </c>
       <c r="U37" t="n">
         <v>285.9996712245996</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977721</v>
       </c>
       <c r="W37" t="n">
         <v>103.2551294002536</v>
       </c>
       <c r="X37" t="n">
-        <v>43.30291244514734</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.95169412459794</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>205.9418719322504</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>222.0748120085952</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>224.4564159933788</v>
+        <v>224.4564159933789</v>
       </c>
       <c r="G38" t="n">
-        <v>229.8675362387188</v>
+        <v>412.7049837258808</v>
       </c>
       <c r="H38" t="n">
-        <v>133.2900042916851</v>
+        <v>316.1274517788472</v>
       </c>
       <c r="I38" t="n">
         <v>122.3448497289536</v>
@@ -25456,10 +25456,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>188.0241516440075</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>203.8496242640739</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -25481,7 +25481,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>134.8729756025429</v>
@@ -25526,19 +25526,19 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5815037380894</v>
+        <v>41.74405625092751</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249321</v>
       </c>
       <c r="W39" t="n">
-        <v>71.48080112649058</v>
+        <v>67.15189926283813</v>
       </c>
       <c r="X39" t="n">
-        <v>21.62418212131624</v>
+        <v>186.9246379453354</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.833703931424</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25560,7 +25560,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>166.9252708782571</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S40" t="n">
-        <v>22.71452578882138</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T40" t="n">
-        <v>41.37475046461878</v>
+        <v>224.2121979517808</v>
       </c>
       <c r="U40" t="n">
-        <v>218.309922848015</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>70.09890357977724</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>122.2955971442452</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>35.91122638060631</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>200.8789625042331</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>184.1476481917807</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>173.7672852674365</v>
       </c>
       <c r="E41" t="n">
-        <v>222.0748120085951</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -25684,19 +25684,19 @@
         <v>213.5544479011939</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3057810423084</v>
+        <v>68.4683335551465</v>
       </c>
       <c r="V41" t="n">
-        <v>145.6957740353574</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>188.0241516440075</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>225.6438480045436</v>
       </c>
     </row>
     <row r="42">
@@ -25709,19 +25709,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>41.99508268713451</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H42" t="n">
         <v>99.35367080851994</v>
@@ -25763,16 +25763,16 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U42" t="n">
-        <v>224.5815037380894</v>
+        <v>41.74405625092751</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249321</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>88.94612300330783</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131635</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25800,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9252708782571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.0604078751873</v>
+        <v>98.11012454303403</v>
       </c>
       <c r="I43" t="n">
-        <v>124.7588730199218</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>20.66155866191555</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S43" t="n">
-        <v>22.71452578882143</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T43" t="n">
-        <v>41.37475046461883</v>
+        <v>41.3747504646189</v>
       </c>
       <c r="U43" t="n">
-        <v>103.1622237374376</v>
+        <v>285.9996712245996</v>
       </c>
       <c r="V43" t="n">
-        <v>242.5865874296276</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>200.878962504233</v>
+        <v>200.8789625042332</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>173.7672852674364</v>
+        <v>173.7672852674365</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>224.456415993379</v>
       </c>
       <c r="G44" t="n">
         <v>412.7049837258808</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.809599373345463</v>
+        <v>2.643177363905053</v>
       </c>
       <c r="S44" t="n">
-        <v>156.8768017372518</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.5544479011939</v>
@@ -25930,10 +25930,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>188.0241516440074</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>225.6438480045435</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>134.8729756025429</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>99.35367080851994</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.27953663397798</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>147.5965106530784</v>
@@ -26000,19 +26000,19 @@
         <v>193.7462792780188</v>
       </c>
       <c r="U45" t="n">
-        <v>41.74405625092739</v>
+        <v>224.5815037380894</v>
       </c>
       <c r="V45" t="n">
-        <v>49.0712835524931</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>67.15189926283801</v>
+        <v>208.4827579000798</v>
       </c>
       <c r="X45" t="n">
-        <v>43.41840586178594</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>20.83370393142414</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>115.9633018739721</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S46" t="n">
         <v>205.5519732759834</v>
       </c>
       <c r="T46" t="n">
-        <v>41.37475046461878</v>
+        <v>41.37475046461893</v>
       </c>
       <c r="U46" t="n">
-        <v>285.9996712245996</v>
+        <v>124.9564474779075</v>
       </c>
       <c r="V46" t="n">
-        <v>70.09890357977713</v>
+        <v>70.09890357977727</v>
       </c>
       <c r="W46" t="n">
-        <v>103.2551294002535</v>
+        <v>103.2551294002537</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426010.1748386445</v>
+        <v>426010.1748386443</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426010.1748386445</v>
+        <v>426010.1748386443</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426010.1748386445</v>
+        <v>426010.1748386443</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>426010.1748386443</v>
+        <v>426010.1748386442</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426010.1748386442</v>
+        <v>426010.1748386443</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>426010.1748386445</v>
+        <v>426010.1748386443</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>466989.9172095507</v>
+        <v>466989.9172095508</v>
       </c>
       <c r="C2" t="n">
         <v>467017.7529642305</v>
       </c>
       <c r="D2" t="n">
-        <v>467036.7040823685</v>
+        <v>467036.7040823683</v>
       </c>
       <c r="E2" t="n">
-        <v>202679.0094099874</v>
+        <v>202679.0094099875</v>
       </c>
       <c r="F2" t="n">
         <v>202679.0094099875</v>
@@ -26343,7 +26343,7 @@
         <v>202679.0094099875</v>
       </c>
       <c r="L2" t="n">
-        <v>202679.0094099874</v>
+        <v>202679.0094099876</v>
       </c>
       <c r="M2" t="n">
         <v>202679.0094099875</v>
@@ -26352,10 +26352,10 @@
         <v>202679.0094099875</v>
       </c>
       <c r="O2" t="n">
+        <v>202679.0094099876</v>
+      </c>
+      <c r="P2" t="n">
         <v>202679.0094099875</v>
-      </c>
-      <c r="P2" t="n">
-        <v>202679.0094099876</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>88206.53744037075</v>
       </c>
       <c r="E3" t="n">
-        <v>279931.0864023248</v>
+        <v>279931.0864023247</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432620.5542618921</v>
+        <v>432620.554261892</v>
       </c>
       <c r="C4" t="n">
         <v>391808.5445959982</v>
       </c>
       <c r="D4" t="n">
-        <v>364319.0492968864</v>
+        <v>364319.0492968863</v>
       </c>
       <c r="E4" t="n">
-        <v>11998.57294437166</v>
+        <v>11998.57294437165</v>
       </c>
       <c r="F4" t="n">
         <v>11998.57294437165</v>
@@ -26438,28 +26438,28 @@
         <v>11998.57294437165</v>
       </c>
       <c r="I4" t="n">
-        <v>11998.57294437166</v>
+        <v>11998.57294437165</v>
       </c>
       <c r="J4" t="n">
-        <v>11998.57294437166</v>
+        <v>11998.57294437165</v>
       </c>
       <c r="K4" t="n">
         <v>11998.57294437165</v>
       </c>
       <c r="L4" t="n">
+        <v>11998.57294437165</v>
+      </c>
+      <c r="M4" t="n">
         <v>11998.57294437166</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>11998.57294437165</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11998.57294437166</v>
       </c>
       <c r="O4" t="n">
         <v>11998.57294437166</v>
       </c>
       <c r="P4" t="n">
-        <v>11998.57294437166</v>
+        <v>11998.57294437165</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741.7629476586008</v>
+        <v>697.6871761788537</v>
       </c>
       <c r="C6" t="n">
-        <v>-99473.35540790381</v>
+        <v>-99516.22092918037</v>
       </c>
       <c r="D6" t="n">
-        <v>-24659.70997784733</v>
+        <v>-24701.75153746577</v>
       </c>
       <c r="E6" t="n">
-        <v>-112024.8953380322</v>
+        <v>-123560.749709493</v>
       </c>
       <c r="F6" t="n">
-        <v>167906.1910642927</v>
+        <v>156370.3366928317</v>
       </c>
       <c r="G6" t="n">
-        <v>167906.1910642927</v>
+        <v>156370.3366928317</v>
       </c>
       <c r="H6" t="n">
-        <v>167906.1910642926</v>
+        <v>156370.3366928317</v>
       </c>
       <c r="I6" t="n">
-        <v>167906.1910642926</v>
+        <v>156370.3366928318</v>
       </c>
       <c r="J6" t="n">
-        <v>167906.1910642927</v>
+        <v>156370.3366928317</v>
       </c>
       <c r="K6" t="n">
-        <v>167906.1910642926</v>
+        <v>156370.3366928317</v>
       </c>
       <c r="L6" t="n">
-        <v>167906.1910642925</v>
+        <v>156370.3366928318</v>
       </c>
       <c r="M6" t="n">
-        <v>122342.3678007019</v>
+        <v>110806.513429241</v>
       </c>
       <c r="N6" t="n">
-        <v>167906.1910642926</v>
+        <v>156370.3366928318</v>
       </c>
       <c r="O6" t="n">
-        <v>167906.1910642926</v>
+        <v>156370.3366928318</v>
       </c>
       <c r="P6" t="n">
-        <v>167906.1910642927</v>
+        <v>156370.3366928318</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>151.2812754328456</v>
+        <v>151.2812754328457</v>
       </c>
       <c r="D3" t="n">
         <v>254.2764827045282</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="F4" t="n">
         <v>182.8374474871619</v>
@@ -26825,13 +26825,13 @@
         <v>182.8374474871619</v>
       </c>
       <c r="N4" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O4" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="P4" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
     </row>
   </sheetData>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>151.2812754328456</v>
+        <v>151.2812754328457</v>
       </c>
       <c r="D3" t="n">
         <v>102.9952072716826</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>103.6481195133053</v>
+        <v>103.6481195133052</v>
       </c>
       <c r="S5" t="n">
         <v>192.0063705620278</v>
@@ -27797,7 +27797,7 @@
         <v>145.5546376313077</v>
       </c>
       <c r="J7" t="n">
-        <v>69.55172232054549</v>
+        <v>69.55172232054548</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.91722728548849</v>
+        <v>56.91722728548848</v>
       </c>
       <c r="R7" t="n">
         <v>161.1249642551781</v>
@@ -31278,22 +31278,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6081659313883236</v>
+        <v>0.6081659313883238</v>
       </c>
       <c r="H5" t="n">
-        <v>6.228379344830672</v>
+        <v>6.228379344830673</v>
       </c>
       <c r="I5" t="n">
-        <v>23.44631706984837</v>
+        <v>23.44631706984838</v>
       </c>
       <c r="J5" t="n">
-        <v>51.61732321916978</v>
+        <v>51.6173232191698</v>
       </c>
       <c r="K5" t="n">
-        <v>77.36098709483754</v>
+        <v>77.36098709483755</v>
       </c>
       <c r="L5" t="n">
-        <v>95.97314521756297</v>
+        <v>95.97314521756299</v>
       </c>
       <c r="M5" t="n">
         <v>106.7886160998901</v>
@@ -31305,19 +31305,19 @@
         <v>102.4691175722045</v>
       </c>
       <c r="P5" t="n">
-        <v>87.45502114105525</v>
+        <v>87.45502114105527</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.67507872321089</v>
+        <v>65.6750787232109</v>
       </c>
       <c r="R5" t="n">
-        <v>38.20270318757182</v>
+        <v>38.20270318757183</v>
       </c>
       <c r="S5" t="n">
         <v>13.85858116151144</v>
       </c>
       <c r="T5" t="n">
-        <v>2.662246364652388</v>
+        <v>2.662246364652389</v>
       </c>
       <c r="U5" t="n">
         <v>0.04865327451106589</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3253974603649887</v>
+        <v>0.3253974603649888</v>
       </c>
       <c r="H6" t="n">
         <v>3.142654419840813</v>
       </c>
       <c r="I6" t="n">
-        <v>11.20337747309281</v>
+        <v>11.20337747309282</v>
       </c>
       <c r="J6" t="n">
-        <v>30.74292409527291</v>
+        <v>30.74292409527292</v>
       </c>
       <c r="K6" t="n">
-        <v>52.54455393972715</v>
+        <v>52.54455393972716</v>
       </c>
       <c r="L6" t="n">
-        <v>70.65263717267004</v>
+        <v>70.65263717267005</v>
       </c>
       <c r="M6" t="n">
-        <v>82.44829511090086</v>
+        <v>82.44829511090087</v>
       </c>
       <c r="N6" t="n">
-        <v>84.63045614992748</v>
+        <v>84.6304561499275</v>
       </c>
       <c r="O6" t="n">
-        <v>77.42033347552432</v>
+        <v>77.42033347552433</v>
       </c>
       <c r="P6" t="n">
-        <v>62.13664311127579</v>
+        <v>62.1366431112758</v>
       </c>
       <c r="Q6" t="n">
         <v>41.53670037922208</v>
@@ -31393,13 +31393,13 @@
         <v>20.20318617950343</v>
       </c>
       <c r="S6" t="n">
-        <v>6.044115108095291</v>
+        <v>6.044115108095292</v>
       </c>
       <c r="T6" t="n">
         <v>1.311580114365897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02140772765559137</v>
+        <v>0.02140772765559138</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2728022999608691</v>
+        <v>0.2728022999608692</v>
       </c>
       <c r="H7" t="n">
         <v>2.425460448743002</v>
       </c>
       <c r="I7" t="n">
-        <v>8.203909166095958</v>
+        <v>8.20390916609596</v>
       </c>
       <c r="J7" t="n">
         <v>19.28712260723345</v>
@@ -31451,28 +31451,28 @@
         <v>31.69466721363552</v>
       </c>
       <c r="L7" t="n">
-        <v>40.55826194145504</v>
+        <v>40.55826194145505</v>
       </c>
       <c r="M7" t="n">
-        <v>42.7630005293206</v>
+        <v>42.76300052932061</v>
       </c>
       <c r="N7" t="n">
-        <v>41.74619195673921</v>
+        <v>41.74619195673922</v>
       </c>
       <c r="O7" t="n">
-        <v>38.5593650890145</v>
+        <v>38.55936508901451</v>
       </c>
       <c r="P7" t="n">
-        <v>32.99419816981274</v>
+        <v>32.99419816981275</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.84347259035969</v>
+        <v>22.8434725903597</v>
       </c>
       <c r="R7" t="n">
         <v>12.26618341460417</v>
       </c>
       <c r="S7" t="n">
-        <v>4.754200082045327</v>
+        <v>4.754200082045328</v>
       </c>
       <c r="T7" t="n">
         <v>1.165609827105532</v>
@@ -31527,7 +31527,7 @@
         <v>86.75939145303902</v>
       </c>
       <c r="K8" t="n">
-        <v>130.0298377359844</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L8" t="n">
         <v>161.3135117362607</v>
@@ -31551,13 +31551,13 @@
         <v>64.21183962487768</v>
       </c>
       <c r="S8" t="n">
-        <v>23.29377024976658</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T8" t="n">
-        <v>4.474754987091747</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08177736127180799</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.5469343212889852</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2822341029752</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I9" t="n">
         <v>18.83085272859006</v>
@@ -31606,7 +31606,7 @@
         <v>51.67329918809664</v>
       </c>
       <c r="K9" t="n">
-        <v>88.31789871445864</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L9" t="n">
         <v>118.7543139272422</v>
@@ -31624,19 +31624,19 @@
         <v>104.4404670187712</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.81568634559046</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R9" t="n">
         <v>33.95790461476701</v>
       </c>
       <c r="S9" t="n">
-        <v>10.15906513446864</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T9" t="n">
         <v>2.204529128353409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03598252113743325</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31709,7 +31709,7 @@
         <v>20.61723743371469</v>
       </c>
       <c r="S10" t="n">
-        <v>7.990951104009514</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T10" t="n">
         <v>1.959179456903741</v>
@@ -31858,7 +31858,7 @@
         <v>273.6700722885356</v>
       </c>
       <c r="P12" t="n">
-        <v>219.6443601913154</v>
+        <v>219.644360191315</v>
       </c>
       <c r="Q12" t="n">
         <v>146.8264380313297</v>
@@ -32317,7 +32317,7 @@
         <v>108.6719454931581</v>
       </c>
       <c r="K18" t="n">
-        <v>185.7376638606195</v>
+        <v>185.7376638606193</v>
       </c>
       <c r="L18" t="n">
         <v>249.7472105119907</v>
@@ -32569,7 +32569,7 @@
         <v>273.6700722885356</v>
       </c>
       <c r="P21" t="n">
-        <v>219.6443601913152</v>
+        <v>219.644360191315</v>
       </c>
       <c r="Q21" t="n">
         <v>146.8264380313297</v>
@@ -33976,7 +33976,7 @@
         <v>108.6719454931581</v>
       </c>
       <c r="K39" t="n">
-        <v>185.73766386062</v>
+        <v>185.7376638606193</v>
       </c>
       <c r="L39" t="n">
         <v>249.7472105119907</v>
@@ -34140,7 +34140,7 @@
         <v>339.251672143107</v>
       </c>
       <c r="M41" t="n">
-        <v>377.4828520583516</v>
+        <v>377.4828520583515</v>
       </c>
       <c r="N41" t="n">
         <v>383.5909192508274</v>
@@ -34219,7 +34219,7 @@
         <v>249.7472105119907</v>
       </c>
       <c r="M42" t="n">
-        <v>291.443214852595</v>
+        <v>291.4432148525946</v>
       </c>
       <c r="N42" t="n">
         <v>299.1568495333912</v>
@@ -34468,7 +34468,7 @@
         <v>219.644360191315</v>
       </c>
       <c r="Q45" t="n">
-        <v>146.8264380313304</v>
+        <v>146.8264380313297</v>
       </c>
       <c r="R45" t="n">
         <v>71.41544312711324</v>
@@ -35412,7 +35412,7 @@
         <v>5.940275775396344</v>
       </c>
       <c r="K11" t="n">
-        <v>58.87268634768625</v>
+        <v>58.87268634768616</v>
       </c>
       <c r="L11" t="n">
         <v>109.3794175473694</v>
@@ -35506,7 +35506,7 @@
         <v>134.6387339552023</v>
       </c>
       <c r="P12" t="n">
-        <v>89.01931296234343</v>
+        <v>89.01931296234301</v>
       </c>
       <c r="Q12" t="n">
         <v>10.34420829745869</v>
@@ -35573,22 +35573,22 @@
         <v>97.26181485176083</v>
       </c>
       <c r="L13" t="n">
-        <v>11.85523535279924</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M13" t="n">
-        <v>137.3980450648091</v>
+        <v>138.9754756571644</v>
       </c>
       <c r="N13" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O13" t="n">
-        <v>170.8701813952333</v>
+        <v>1.306848374715514</v>
       </c>
       <c r="P13" t="n">
         <v>122.7519070061862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>89.01931296234301</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.34420829745868</v>
+        <v>10.3442082974588</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>182.8374474871619</v>
       </c>
       <c r="N16" t="n">
-        <v>137.9876884821099</v>
+        <v>138.9754756571643</v>
       </c>
       <c r="O16" t="n">
         <v>1.306848374715514</v>
@@ -35825,7 +35825,7 @@
         <v>122.7519070061862</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>51.3422608606195</v>
+        <v>51.34226086061932</v>
       </c>
       <c r="L18" t="n">
         <v>114.6566902266133</v>
@@ -35983,7 +35983,7 @@
         <v>89.01931296234301</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.34420829745869</v>
+        <v>10.3442082974588</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>97.26181485176083</v>
+        <v>49.97757177075688</v>
       </c>
       <c r="L19" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M19" t="n">
-        <v>129.1760344609804</v>
+        <v>15.70859854259623</v>
       </c>
       <c r="N19" t="n">
-        <v>23.07355566282804</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O19" t="n">
         <v>170.8701813952333</v>
@@ -36062,7 +36062,7 @@
         <v>122.7519070061862</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.9877871750541942</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>134.6387339552023</v>
       </c>
       <c r="P21" t="n">
-        <v>89.01931296234319</v>
+        <v>89.01931296234301</v>
       </c>
       <c r="Q21" t="n">
         <v>10.34420829745869</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.26181485176083</v>
+        <v>5.600629832377392</v>
       </c>
       <c r="L22" t="n">
-        <v>89.16773993663261</v>
+        <v>180.8289249560158</v>
       </c>
       <c r="M22" t="n">
         <v>182.8374474871619</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.940275775396344</v>
+        <v>5.940275775396255</v>
       </c>
       <c r="K23" t="n">
         <v>58.87268634768625</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>6.588417007431839</v>
+        <v>97.26181485176083</v>
       </c>
       <c r="L25" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M25" t="n">
-        <v>182.8374474871619</v>
+        <v>15.70859854259623</v>
       </c>
       <c r="N25" t="n">
-        <v>182.8374474871619</v>
+        <v>135.5532044061579</v>
       </c>
       <c r="O25" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>122.7519070061862</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.9877871750541942</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.940275775396479</v>
+        <v>5.940275775396344</v>
       </c>
       <c r="K26" t="n">
         <v>58.87268634768625</v>
@@ -36694,7 +36694,7 @@
         <v>89.01931296234301</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.34420829745869</v>
+        <v>10.3442082974588</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36761,10 +36761,10 @@
         <v>180.8289249560158</v>
       </c>
       <c r="M28" t="n">
-        <v>65.68617031335322</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N28" t="n">
-        <v>182.8374474871619</v>
+        <v>66.6739574884073</v>
       </c>
       <c r="O28" t="n">
         <v>170.8701813952333</v>
@@ -36773,7 +36773,7 @@
         <v>122.7519070061862</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.940275775396027</v>
+        <v>5.940275775396344</v>
       </c>
       <c r="K29" t="n">
         <v>58.87268634768625</v>
@@ -36928,7 +36928,7 @@
         <v>134.6387339552023</v>
       </c>
       <c r="P30" t="n">
-        <v>89.01931296234301</v>
+        <v>89.01931296234319</v>
       </c>
       <c r="Q30" t="n">
         <v>10.34420829745869</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>97.26181485176083</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>180.8289249560158</v>
@@ -37001,16 +37001,16 @@
         <v>182.8374474871619</v>
       </c>
       <c r="N31" t="n">
-        <v>91.17626246777853</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O31" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>6.58841700743172</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>83.68912165493089</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.40418854714335</v>
+        <v>15.40418854714324</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.34226086061932</v>
+        <v>51.3422608606195</v>
       </c>
       <c r="L33" t="n">
         <v>114.6566902266133</v>
@@ -37235,7 +37235,7 @@
         <v>180.8289249560158</v>
       </c>
       <c r="M34" t="n">
-        <v>65.68617031335322</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N34" t="n">
         <v>182.8374474871619</v>
@@ -37244,10 +37244,10 @@
         <v>170.8701813952333</v>
       </c>
       <c r="P34" t="n">
-        <v>122.7519070061862</v>
+        <v>6.58841700743172</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>152.8625317786268</v>
       </c>
       <c r="N36" t="n">
-        <v>171.0986802521412</v>
+        <v>171.0986802521415</v>
       </c>
       <c r="O36" t="n">
         <v>134.6387339552023</v>
@@ -37475,13 +37475,13 @@
         <v>182.8374474871619</v>
       </c>
       <c r="N37" t="n">
-        <v>65.68617031335316</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O37" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P37" t="n">
-        <v>122.7519070061862</v>
+        <v>5.600629832377589</v>
       </c>
       <c r="Q37" t="n">
         <v>0.9877871750541942</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>51.34226086061994</v>
+        <v>51.34226086061932</v>
       </c>
       <c r="L39" t="n">
         <v>114.6566902266133</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>5.600629832377813</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M40" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N40" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O40" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>6.58841700743172</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>109.3794175473694</v>
       </c>
       <c r="M41" t="n">
-        <v>152.8952746617607</v>
+        <v>152.8952746617606</v>
       </c>
       <c r="N41" t="n">
         <v>159.9131822441512</v>
@@ -37867,7 +37867,7 @@
         <v>114.6566902266133</v>
       </c>
       <c r="M42" t="n">
-        <v>152.8625317786272</v>
+        <v>152.8625317786268</v>
       </c>
       <c r="N42" t="n">
         <v>171.0986802521412</v>
@@ -37940,16 +37940,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.600629832377702</v>
+        <v>5.600629832377592</v>
       </c>
       <c r="L43" t="n">
         <v>180.8289249560158</v>
       </c>
       <c r="M43" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N43" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O43" t="n">
         <v>170.8701813952333</v>
@@ -38116,7 +38116,7 @@
         <v>89.01931296234301</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.34420829745937</v>
+        <v>10.34420829745869</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38183,19 +38183,19 @@
         <v>180.8289249560158</v>
       </c>
       <c r="M46" t="n">
-        <v>65.6861703133535</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="N46" t="n">
-        <v>182.837447487162</v>
+        <v>182.8374474871619</v>
       </c>
       <c r="O46" t="n">
         <v>170.8701813952333</v>
       </c>
       <c r="P46" t="n">
-        <v>122.7519070061862</v>
+        <v>6.588417007431605</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.9877871750541942</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
